--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.025</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.439</v>
+        <v>26.102</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.03727268254928</v>
+        <v>25.73427486373188</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.03728181077892</v>
+        <v>26.58036753236158</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.03727797188597</v>
+        <v>26.77779204118698</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.03696698001221</v>
+        <v>25.16218999485349</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.03697177376824</v>
+        <v>25.58789968303201</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.03696995134016</v>
+        <v>25.92699145306679</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.03734765062692</v>
+        <v>25.37141497269887</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.03735207897342</v>
+        <v>25.77871906644316</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.03735048275028</v>
+        <v>26.13695396626867</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.0359313722725</v>
+        <v>25.63602964180754</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.0359383753431</v>
+        <v>26.12140183129197</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.03593705559639</v>
+        <v>26.29529203786641</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.03582973774096</v>
+        <v>25.60633929165886</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.03584324034998</v>
+        <v>26.44574284536936</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.03584193997793</v>
+        <v>26.68930418612915</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.03571693535104</v>
+        <v>23.52767266209097</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.03573804870759</v>
+        <v>25.07194091504416</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.03573410144774</v>
+        <v>25.53359082066875</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.03526150478742</v>
+        <v>21.56124703916538</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.03527966134742</v>
+        <v>22.55573861568239</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.0352762030245</v>
+        <v>23.07451192528428</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.03583631390276</v>
+        <v>21.97012377078775</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.03585270280085</v>
+        <v>22.93658689305768</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.03694193471551</v>
+        <v>25.9922478372722</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.03696574643904</v>
+        <v>28.16630874616951</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.03696184743503</v>
+        <v>28.35677307997952</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.03666268279097</v>
+        <v>27.68005907371445</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.03667360664408</v>
+        <v>28.76213772435531</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.03667014155008</v>
+        <v>28.95761879679085</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.03706307493912</v>
+        <v>27.34699949601372</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.03707392712607</v>
+        <v>28.4264276101291</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.03707185462916</v>
+        <v>28.66756011236524</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.03554102814258</v>
+        <v>29.09127924681562</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.0355572898509</v>
+        <v>30.16441879322847</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.03555548171365</v>
+        <v>30.26067894018253</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.03543131612996</v>
+        <v>29.14208966524643</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.03546242317164</v>
+        <v>30.95884341609371</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.03546151963586</v>
+        <v>31.09249424838402</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.03551822256116</v>
+        <v>24.57336992706809</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.03557267449306</v>
+        <v>28.51937186952325</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.03556051171602</v>
+        <v>29.09898698073001</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.03514590547526</v>
+        <v>27.9730518822949</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.03518905867358</v>
+        <v>30.59035459427975</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.03516382566074</v>
+        <v>30.93731969218279</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.03572190058392</v>
+        <v>29.8062601264471</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.03722402123363</v>
+        <v>24.78431058124113</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.03709584445207</v>
+        <v>26.94305418043695</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.03709198872326</v>
+        <v>27.16076654255266</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.03680274614037</v>
+        <v>26.41186514854033</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.03680961004538</v>
+        <v>27.50427588612509</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.03680663896942</v>
+        <v>27.72473298785381</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.03718843815347</v>
+        <v>26.17673469093704</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.03719553864918</v>
+        <v>27.26356294277517</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.03719397817187</v>
+        <v>27.53775746887512</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.03574097124465</v>
+        <v>27.73152833906843</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.03573372854735</v>
+        <v>28.80765564401569</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.03573202353639</v>
+        <v>28.9186608067815</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.03562224377762</v>
+        <v>27.81125698302736</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.03564672364453</v>
+        <v>29.63038503683071</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.03564578198176</v>
+        <v>29.78611087102999</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.03528414419887</v>
+        <v>23.33876195520167</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.03575860220766</v>
+        <v>27.24268228175372</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.03574565017331</v>
+        <v>27.9193761282573</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.03537473146569</v>
+        <v>26.58393914226165</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.03538925246556</v>
+        <v>29.1998598169074</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.03536389738382</v>
+        <v>29.61286995115838</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.03590719552017</v>
+        <v>26.00280174971427</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.0358950011595</v>
+        <v>28.46708824965744</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.03789485358328</v>
+        <v>24.76867627758395</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.03788893686433</v>
+        <v>26.1033567760424</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.03788874958006</v>
+        <v>26.38596975246508</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.03766988469466</v>
+        <v>25.89364798511144</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.03767345760455</v>
+        <v>26.67688411085185</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.03767348459702</v>
+        <v>26.88482742945829</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.03795802095091</v>
+        <v>25.72274673704447</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.03796201740047</v>
+        <v>26.52539737270386</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.03796266824808</v>
+        <v>26.78333726835459</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.0368775303174</v>
+        <v>26.52138647586487</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.03687390608812</v>
+        <v>27.21922656520407</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.03687410090518</v>
+        <v>27.38496690899148</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.0367906048402</v>
+        <v>26.59002742642234</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.03680198941339</v>
+        <v>27.74630466140326</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.03680273969839</v>
+        <v>28.01355749952163</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.03655487142226</v>
+        <v>24.03570973703674</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.03676086054467</v>
+        <v>26.26159464048411</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.03675219492079</v>
+        <v>27.29556783028938</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.03646417527998</v>
+        <v>25.87136241252884</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.0364728045963</v>
+        <v>27.45336049822825</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.03646423766028</v>
+        <v>28.20440549321975</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.03689020709342</v>
+        <v>25.44093791725334</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.03688720343666</v>
+        <v>27.01434820842809</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.03565578249934</v>
+        <v>23.48091585283388</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.033699920743</v>
+        <v>22.98281461386001</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.03371468917278</v>
+        <v>23.76473390290971</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.03371003223778</v>
+        <v>24.05319185180896</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.03355201745056</v>
+        <v>23.16781572717622</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.03358299629444</v>
+        <v>24.44625531323832</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.03357912890195</v>
+        <v>24.86808576945263</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.0352147874529</v>
+        <v>24.21597623065938</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.03530882189749</v>
+        <v>25.79786027938545</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.03530607799065</v>
+        <v>26.28575531564564</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.03482790807205</v>
+        <v>22.14116469120531</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.03482990569979</v>
+        <v>23.18760503826643</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.03482778143634</v>
+        <v>23.7348332554708</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.0354653585126</v>
+        <v>22.54856197744464</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.03545088224563</v>
+        <v>23.56518168510484</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.03545026276808</v>
+        <v>24.12385753313088</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.03309553358791</v>
+        <v>23.62017762159446</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.03312467878999</v>
+        <v>24.40302066151317</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.03312021479434</v>
+        <v>24.73372288512082</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.03294851674471</v>
+        <v>23.76703805541552</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.03298231892568</v>
+        <v>25.0341738942668</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.03297809929779</v>
+        <v>25.53013878294812</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.03508115106903</v>
+        <v>30.18907241331582</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.03362706187615</v>
+        <v>31.92201539876755</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.03369428289414</v>
+        <v>33.87583833792673</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.0336786320327</v>
+        <v>34.15543300845412</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.03353862448764</v>
+        <v>32.18461847183877</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.03360083870065</v>
+        <v>35.3206221294961</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.03358680767264</v>
+        <v>35.77863301900534</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.03506753395644</v>
+        <v>28.05824478307671</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.03512012896226</v>
+        <v>32.07706199967843</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.0351144611596</v>
+        <v>32.70401646887014</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.03470406157908</v>
+        <v>32.72473890093647</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.03471042666198</v>
+        <v>35.41307412511696</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.03468881273691</v>
+        <v>35.74650278207974</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.03531690552849</v>
+        <v>31.71690144618141</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.03528063849731</v>
+        <v>34.24604622766364</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.03526591867282</v>
+        <v>34.62638070377901</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.03299272622108</v>
+        <v>37.16118656509702</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.03307387329489</v>
+        <v>39.12581313002573</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.03305968711854</v>
+        <v>39.38881033202375</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.03291048710096</v>
+        <v>37.36956050452817</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.03297295259858</v>
+        <v>40.50990361095604</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.03295823206372</v>
+        <v>40.94046734480689</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.035523882447</v>
+        <v>28.92185015675144</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.03389049733714</v>
+        <v>30.54269269311333</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.03394509275966</v>
+        <v>32.47870790074958</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.03393043156826</v>
+        <v>32.81656133067</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.03379684838181</v>
+        <v>30.87190853268928</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.03385642434906</v>
+        <v>33.97336262983904</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.03384413502747</v>
+        <v>34.52801222147711</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.03527206418254</v>
+        <v>26.93618956418116</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.03531594516061</v>
+        <v>30.91404025187967</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.03530919996291</v>
+        <v>31.64221730471779</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.03491009613248</v>
+        <v>31.49259278314517</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.03491748075697</v>
+        <v>34.18252557656865</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.03489574856836</v>
+        <v>34.58170618840268</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.03549995329827</v>
+        <v>30.53526134449302</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.03546805305123</v>
+        <v>33.05965093533528</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.03545314197601</v>
+        <v>33.51508288759747</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.03327518683232</v>
+        <v>35.9335183048584</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.03334114890173</v>
+        <v>37.88444771258669</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.03332751298372</v>
+        <v>38.20516353631854</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.03318492788551</v>
+        <v>36.19757070774754</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.03324522272577</v>
+        <v>39.31053370086255</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.03323176835668</v>
+        <v>39.83653550841255</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.03662276344941</v>
+        <v>27.86921301727823</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.03524047899153</v>
+        <v>27.77034753241136</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.03529384900466</v>
+        <v>28.90208004331773</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.03529092740398</v>
+        <v>29.46379412263226</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.03515867054243</v>
+        <v>27.86786149521662</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.03518976106675</v>
+        <v>29.66486605525624</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.03519149878252</v>
+        <v>30.56442440475406</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.03646872127448</v>
+        <v>27.251965884485</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.03647114949175</v>
+        <v>29.47785412801802</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.03646183478163</v>
+        <v>30.54654707749814</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.03615927529806</v>
+        <v>29.58194618634382</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.0361661156632</v>
+        <v>31.21010500340955</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.03615841598901</v>
+        <v>32.01285882098689</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.03662319588446</v>
+        <v>29.02823303303286</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.03661308567094</v>
+        <v>30.63463861989521</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.03660733903653</v>
+        <v>31.53523899123409</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.03480815436906</v>
+        <v>31.57498179159228</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.03488813944099</v>
+        <v>32.74944685114272</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.03488574773997</v>
+        <v>33.33295333762772</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.03473652224051</v>
+        <v>31.4899893182236</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.03477224145335</v>
+        <v>33.35702990544428</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.03477425089648</v>
+        <v>34.2850319232605</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.03399977912892</v>
+        <v>19.19036871683626</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.0340441839386</v>
+        <v>20.78100207094435</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.03403255677063</v>
+        <v>21.25473274756956</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.0333759792321</v>
+        <v>17.59795814694539</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.03338213463792</v>
+        <v>18.34653846959129</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.03337639942183</v>
+        <v>19.03765716913331</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.03418390815399</v>
+        <v>18.19289429306765</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.0341979133301</v>
+        <v>18.89740590305445</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.03419264175501</v>
+        <v>19.66721802248977</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.03116768758647</v>
+        <v>18.43881895242589</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.03114917819017</v>
+        <v>19.33603007966463</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.03114604220501</v>
+        <v>19.6983334882896</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.03092151270505</v>
+        <v>18.55669700733252</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.03094562677331</v>
+        <v>20.12041418147335</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.03094261224343</v>
+        <v>20.63215296588395</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.03040829960054</v>
+        <v>16.75034102522269</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.03092247892244</v>
+        <v>19.85150904488393</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.03091078483119</v>
+        <v>20.85354191020669</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.03002925178687</v>
+        <v>12.68403728179308</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.03003689446775</v>
+        <v>14.64488346317181</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.03002018802328</v>
+        <v>15.77827048771301</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.03122233936221</v>
+        <v>13.59409924390456</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.03121237998447</v>
+        <v>15.47472060575005</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.03329249947254</v>
+        <v>15.54780905255373</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.03365992085397</v>
+        <v>19.92342091409786</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.03364856895104</v>
+        <v>20.24584181547156</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.03308854698671</v>
+        <v>18.07153596290843</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.03309443173013</v>
+        <v>20.29733105693683</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.0330849134724</v>
+        <v>20.66929408941982</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.03390643844409</v>
+        <v>17.48303795241977</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.0339038489914</v>
+        <v>19.71032896162053</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.03389732794809</v>
+        <v>20.16883605153753</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.0306844021878</v>
+        <v>21.21934721957485</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.03078735767428</v>
+        <v>23.39631612787903</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.03078095419275</v>
+        <v>23.61921949884928</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.03052150920599</v>
+        <v>21.87259717732527</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.03058689988931</v>
+        <v>25.55093377386789</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.0305813159392</v>
+        <v>25.88189031782421</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.02917827704083</v>
+        <v>14.98456466896171</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.03077112438514</v>
+        <v>22.93937525767538</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.03073994348197</v>
+        <v>24.17302539371282</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.03003809557625</v>
+        <v>20.60571965204533</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.03005281582079</v>
+        <v>25.76579161706215</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.02999376942094</v>
+        <v>26.53105885753276</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.03115050063447</v>
+        <v>19.48878765793019</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.03110975712781</v>
+        <v>24.37877130083171</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.03397915186816</v>
+        <v>13.0224160088017</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.03391636291171</v>
+        <v>17.37235924395542</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.03390592830104</v>
+        <v>17.75386512108603</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.03335682945562</v>
+        <v>15.33658749098026</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.03336481161052</v>
+        <v>17.59356712168661</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.03335683138641</v>
+        <v>18.01716651716269</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.03414230822921</v>
+        <v>14.9723214000465</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.03414353265945</v>
+        <v>17.21667733613749</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.03413842396408</v>
+        <v>17.74428285324689</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.03107523412377</v>
+        <v>18.29265753238842</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.03114988805844</v>
+        <v>20.48411360294308</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.03114483830386</v>
+        <v>20.73499694945957</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.03090061686477</v>
+        <v>18.99932288354596</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.03096231933782</v>
+        <v>22.69606368724914</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.03095893248757</v>
+        <v>23.06817167283277</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.02966597597531</v>
+        <v>12.40398741884952</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.0311606870751</v>
+        <v>20.29114976488308</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.03112952270845</v>
+        <v>21.71142463566795</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.03045352816626</v>
+        <v>17.65333924476671</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.03046808975562</v>
+        <v>22.82377001582163</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.03041079730679</v>
+        <v>23.73783088172693</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.03152060457781</v>
+        <v>16.66979395011046</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.03148228628528</v>
+        <v>21.56602376897374</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.03533205795038</v>
+        <v>12.84664554339503</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.03544688361532</v>
+        <v>15.4509434798703</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.03544352878315</v>
+        <v>16.04137013738424</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.03499810729162</v>
+        <v>13.92607872308191</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.0350053881447</v>
+        <v>15.44396706278995</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.03500429929032</v>
+        <v>15.95996953580434</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.03560278846167</v>
+        <v>14.01311627162216</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.03561208024406</v>
+        <v>15.56904540235471</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.03561171031973</v>
+        <v>16.17477052124336</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.03328430197162</v>
+        <v>14.9858523663724</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.03330932268133</v>
+        <v>16.35091105465465</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.03330844728959</v>
+        <v>16.73694169467301</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.03312494646416</v>
+        <v>15.50167174899629</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.03315486446547</v>
+        <v>17.76726743593406</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.03315438235472</v>
+        <v>18.38148804893895</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.03244989157061</v>
+        <v>15.8572729439643</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.0330692138091</v>
+        <v>20.47373895551593</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.0330467685945</v>
+        <v>22.34467694611246</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.03248513918472</v>
+        <v>18.88249304738532</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.03249715659061</v>
+        <v>22.1302132816783</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.03247676669209</v>
+        <v>23.55799969836155</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.0333802370554</v>
+        <v>18.21407571675952</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.03336244387916</v>
+        <v>21.45847669147288</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.03041498276439</v>
+        <v>16.67848421363513</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.02667631114717</v>
+        <v>15.46773754106864</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.02677923865267</v>
+        <v>17.06056479884586</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.02676373106907</v>
+        <v>17.69895093789845</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.02643162352304</v>
+        <v>15.86210166824138</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.02650696353429</v>
+        <v>18.48488940099823</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.02649160194823</v>
+        <v>19.42280554316745</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.02980953841984</v>
+        <v>18.72805269995892</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.03002492160706</v>
+        <v>21.88183426631471</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.03002150578808</v>
+        <v>23.00667037891243</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.02908254519259</v>
+        <v>14.37111817825106</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.02908109198816</v>
+        <v>16.40725321599995</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.02907297021448</v>
+        <v>17.6371964947093</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.03038671990821</v>
+        <v>15.28247977843709</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.03035209448868</v>
+        <v>17.23748830426118</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.03034856599888</v>
+        <v>18.51497872921718</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.02540415795593</v>
+        <v>17.21743597976221</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.02554461801173</v>
+        <v>18.78968836309654</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.02553194302139</v>
+        <v>19.5414320762417</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.02517129076119</v>
+        <v>17.48926930772118</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.02525294687631</v>
+        <v>20.05311957539247</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.02523979071029</v>
+        <v>21.18521267744924</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.02924440348445</v>
+        <v>25.23102388298391</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.02670906656781</v>
+        <v>28.58160440675985</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.0269835255722</v>
+        <v>32.40422796297501</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.02694781287471</v>
+        <v>33.06805690032348</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.02664182810746</v>
+        <v>29.45282783106114</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.0267802872165</v>
+        <v>35.5842280497509</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.02674498757783</v>
+        <v>36.68424845383692</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.02950829430167</v>
+        <v>22.78467083179953</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.0289165806699</v>
+        <v>31.05311650843012</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.02896001477327</v>
+        <v>36.31616040272098</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.02891253317296</v>
+        <v>37.11564949471425</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.03019310358247</v>
+        <v>29.21034098785913</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.03016412758052</v>
+        <v>34.16661556175079</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.03013853175893</v>
+        <v>35.08404139503033</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.02520811471155</v>
+        <v>39.91680018121805</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.02541630911903</v>
+        <v>43.75143530578901</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.02540803764966</v>
+        <v>44.42897479386268</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.0252172770437</v>
+        <v>40.59426304204914</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.02538282543232</v>
+        <v>46.72616865322172</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.02535124697241</v>
+        <v>47.84553701288048</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.03028800900275</v>
+        <v>22.57101525520049</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.02584928104936</v>
+        <v>25.62416232899722</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.02587023766018</v>
+        <v>29.42379605472268</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.02738506463306</v>
+        <v>30.20179945887805</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.02720148833257</v>
+        <v>26.61793518738226</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.02735409820776</v>
+        <v>32.70091078661172</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.02732625799838</v>
+        <v>33.98516945628165</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.03003421499377</v>
+        <v>20.35366373410842</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.02989022987272</v>
+        <v>28.36485665526866</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.02986935493026</v>
+        <v>29.92995439985394</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.02935210391376</v>
+        <v>28.36186755109159</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.02939459468351</v>
+        <v>33.64848728102366</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.02934634189862</v>
+        <v>34.59681797919004</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.03058108526947</v>
+        <v>26.64575445155993</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.03055344808952</v>
+        <v>31.61905984852302</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.03052590154816</v>
+        <v>32.69523323493005</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.02581138418527</v>
+        <v>37.1996999331252</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.02600874141912</v>
+        <v>41.0238025546282</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.0260015916673</v>
+        <v>41.81525212281466</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.025798000599</v>
+        <v>37.97610804395425</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.02595713271641</v>
+        <v>44.08045666246619</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.02592798867451</v>
+        <v>45.38320638590187</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.03252744684026</v>
+        <v>23.07097024362402</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.02858799528239</v>
+        <v>22.57040876825174</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.02859173947004</v>
+        <v>24.89035299159272</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.02988561915294</v>
+        <v>25.98682037571749</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.0296928606105</v>
+        <v>22.88682107075646</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.02977730104747</v>
+        <v>26.57013713231058</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.02977773158122</v>
+        <v>28.33196001024155</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.03242249022152</v>
+        <v>24.46010567900015</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.03234759696161</v>
+        <v>29.12002692572387</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.0323305799937</v>
+        <v>31.06084893964509</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.03174494461291</v>
+        <v>29.21417539792492</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.03177292937779</v>
+        <v>32.55697035599999</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.0317543245412</v>
+        <v>34.09319994356529</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.03274587328994</v>
+        <v>28.11108323865923</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.03273685210446</v>
+        <v>31.42221592909045</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.03271980901162</v>
+        <v>33.13781549500732</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.02876971584682</v>
+        <v>33.21622156613429</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.02887911342186</v>
+        <v>35.63112784598651</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.02888676287895</v>
+        <v>36.7758052930563</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.02869219655243</v>
+        <v>33.08405312791218</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.02878971157638</v>
+        <v>36.92442948439676</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.02878905756135</v>
+        <v>38.75108927313103</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.03616960403032</v>
+        <v>20.34335794719998</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.03616994173179</v>
+        <v>22.09015856851498</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.03617027565782</v>
+        <v>22.58542057130185</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.03571816855666</v>
+        <v>18.85017863667001</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.03571874914389</v>
+        <v>19.71842263007601</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.0357160267176</v>
+        <v>20.45909801215215</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.03624161831663</v>
+        <v>19.43668505827737</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.03623607855261</v>
+        <v>20.255388859057</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.03623307730927</v>
+        <v>21.06548587516075</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.03429737905208</v>
+        <v>19.77199004972395</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.03431613572583</v>
+        <v>20.76522452088011</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.03431644707795</v>
+        <v>21.16048823038059</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.03413166416302</v>
+        <v>19.77576904955273</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.03414758747296</v>
+        <v>21.49583329694617</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.03414729927976</v>
+        <v>22.0578087224918</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.03385289325325</v>
+        <v>18.37346756893788</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.03384136890451</v>
+        <v>21.72567569125072</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.03383712991356</v>
+        <v>22.76270084911345</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.03360592855759</v>
+        <v>14.41870001266252</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.03361842964821</v>
+        <v>16.55095426834206</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.0336088104937</v>
+        <v>17.72782051872091</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.03438101159033</v>
+        <v>15.25733160654032</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.03437148043461</v>
+        <v>17.32249960695207</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.03572872800463</v>
+        <v>20.0396641530306</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.0357152144649</v>
+        <v>24.80923042931267</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.0357197950121</v>
+        <v>25.16447830038426</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.03554039184038</v>
+        <v>23.71816055656701</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.03554334523935</v>
+        <v>26.14835618204899</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.03553885929312</v>
+        <v>26.55283736657742</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.03607145109608</v>
+        <v>22.90669202281725</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.03605755767729</v>
+        <v>25.3385087749262</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.03605464151761</v>
+        <v>25.83225578014887</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.03398760186956</v>
+        <v>27.00443870625346</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.03403954274332</v>
+        <v>29.37126674960953</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.03404069059595</v>
+        <v>29.60084243833816</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.03388555473722</v>
+        <v>27.3290626910057</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.03393101338138</v>
+        <v>31.3247602582193</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.03393008766202</v>
+        <v>31.65998515980689</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.03308100947586</v>
+        <v>19.40825092923893</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.03306051665196</v>
+        <v>27.95205012346504</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.03305095132031</v>
+        <v>29.18391630278233</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.03367744694986</v>
+        <v>26.3788541109152</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.03371187858715</v>
+        <v>31.9744581479115</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.03367142414334</v>
+        <v>32.72671166295402</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.03439519236365</v>
+        <v>24.99039860819936</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.03438514955307</v>
+        <v>30.28661033743886</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.0361653470453</v>
+        <v>17.31527165619102</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.03617028829852</v>
+        <v>22.05419422456486</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.03617032923222</v>
+        <v>22.47544635171384</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.03571178981715</v>
+        <v>20.80881194959444</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.03571496934666</v>
+        <v>23.2720214134544</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.03571136728737</v>
+        <v>23.7298749687231</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.03622144673029</v>
+        <v>20.22324442734385</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.03620847974472</v>
+        <v>22.67444740198874</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.03620584618324</v>
+        <v>23.24076564549566</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.03423886951453</v>
+        <v>23.90198509476993</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.03428786342381</v>
+        <v>26.2847814661192</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.03429021734174</v>
+        <v>26.54386087832946</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.03412778654778</v>
+        <v>24.29140732977348</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.03417084488646</v>
+        <v>28.30780184018702</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.03417122555992</v>
+        <v>28.68662654343779</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.03338652566472</v>
+        <v>16.77304313197352</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.03336692255311</v>
+        <v>25.24044734791926</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.03335727742106</v>
+        <v>26.67412138594798</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.03393459664539</v>
+        <v>23.39371241477782</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.03396772147963</v>
+        <v>29.00034654302695</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.03392807002024</v>
+        <v>29.90422975658316</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.03462314718662</v>
+        <v>22.1304905875668</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.03461327260978</v>
+        <v>27.43089493647615</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.03701977686174</v>
+        <v>15.84837144143551</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.03701515831816</v>
+        <v>18.68683417607002</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.0370183367576</v>
+        <v>19.32236245563688</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.03678939985264</v>
+        <v>17.71118217308831</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.03679148559238</v>
+        <v>19.39132311824133</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.03679144840253</v>
+        <v>19.9134204590373</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.03717961380525</v>
+        <v>17.59943064895022</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.03717337015749</v>
+        <v>19.31487553785656</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.03717360758105</v>
+        <v>19.94257884297617</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.03568315224314</v>
+        <v>18.9247828813034</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.03570621612615</v>
+        <v>20.41454463950917</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.0357072305823</v>
+        <v>20.82129964463836</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.03558119634906</v>
+        <v>19.24665429364273</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.03560278829126</v>
+        <v>21.71295651576959</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.03560330095047</v>
+        <v>22.36542034112507</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.0351668685044</v>
+        <v>18.16749326048446</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.03515698114986</v>
+        <v>23.08338074205907</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.03515189880564</v>
+        <v>25.10970728260569</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.03521631860902</v>
+        <v>21.96455981574244</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.03523481561344</v>
+        <v>25.44652548447488</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.03521964814756</v>
+        <v>26.96523637212945</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.03579220782153</v>
+        <v>21.08204727383479</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.03578905420339</v>
+        <v>24.55816905827316</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.03384768136462</v>
+        <v>18.55993852657458</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.03053516989127</v>
+        <v>17.42943275584157</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.03054487534305</v>
+        <v>19.13115211340056</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.03151331978821</v>
+        <v>19.80151813763115</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.03131116456444</v>
+        <v>17.72321838404415</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.03136318701188</v>
+        <v>20.51504541826986</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.03135862453925</v>
+        <v>21.50346962021258</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.03348245839117</v>
+        <v>19.83938371541475</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.033429531946</v>
+        <v>23.24223000069823</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.03341734293847</v>
+        <v>24.39335366738724</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.03299619601372</v>
+        <v>15.54017615534417</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.03300645540103</v>
+        <v>17.76240556425461</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.03300241857929</v>
+        <v>19.03564926233484</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.03384351659989</v>
+        <v>16.40117540211536</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.03382822521198</v>
+        <v>18.55214495672206</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.03382340495113</v>
+        <v>19.85810913100432</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.03063171732079</v>
+        <v>18.63839859288058</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.03069481942084</v>
+        <v>20.32675033064156</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.03070872290302</v>
+        <v>21.10993924465708</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.0305047962325</v>
+        <v>18.84175248228364</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.03056153386272</v>
+        <v>21.58466539430949</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.03055942948743</v>
+        <v>22.76636287581124</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.03310074500147</v>
+        <v>31.12646134948508</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.02957913670936</v>
+        <v>34.87050806193012</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.02958132743288</v>
+        <v>39.02383101408245</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.03166579305611</v>
+        <v>39.66765650703391</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.0315639351598</v>
+        <v>35.45137301651438</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.03166833238512</v>
+        <v>42.11326734083708</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.03164729046966</v>
+        <v>43.17743881358474</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.03336876066425</v>
+        <v>26.96135241974948</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.03327052818079</v>
+        <v>35.61858957873047</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.03325713040601</v>
+        <v>36.99335016381032</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.03297529048275</v>
+        <v>36.63747839215312</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.03300674460967</v>
+        <v>42.34771436490439</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.03297200030774</v>
+        <v>43.11885047724726</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.03377860420289</v>
+        <v>34.48327704448197</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.03376133953814</v>
+        <v>39.85616926664858</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.03374275775944</v>
+        <v>40.75039910001276</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.03063116491093</v>
+        <v>46.12096727807817</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.03077094468396</v>
+        <v>50.28168663564868</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.03076286460396</v>
+        <v>50.92597121351513</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.0306501520075</v>
+        <v>46.5608459372322</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.0307600895146</v>
+        <v>53.21148882820069</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.03073695830378</v>
+        <v>54.27370287601731</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.0337960705744</v>
+        <v>28.43108167232102</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.03097809451005</v>
+        <v>31.89694412935707</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.03099156251985</v>
+        <v>36.02593261166885</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.03201777852232</v>
+        <v>36.79063126660115</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.03190754694466</v>
+        <v>32.6095295827663</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.03200764822841</v>
+        <v>39.22023827029584</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.03198839912551</v>
+        <v>40.48104391970619</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.03364564240074</v>
+        <v>24.48889147237059</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.03355122111394</v>
+        <v>33.08194919411851</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.0335363732806</v>
+        <v>34.66288395305112</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.03324344511151</v>
+        <v>33.92406216535987</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.03327446243661</v>
+        <v>39.6562713266534</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.03323889044139</v>
+        <v>40.57770988351523</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.03401774065624</v>
+        <v>31.88743663710568</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.03400130740113</v>
+        <v>37.27226272379389</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.0339811415396</v>
+        <v>38.3320398708052</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.03100447587747</v>
+        <v>43.40150300808389</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.03113753496627</v>
+        <v>47.54820045121691</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.03112993998613</v>
+        <v>48.31330133575104</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.0310044562885</v>
+        <v>43.95053726094177</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.03111055030923</v>
+        <v>50.56726970913131</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.03108870833287</v>
+        <v>51.82590650496578</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.03521186546933</v>
+        <v>26.27635583756251</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.03267370598941</v>
+        <v>25.96785532534446</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.03267614506373</v>
+        <v>28.45725464651214</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.03356554483976</v>
+        <v>29.61496852577087</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.03344661144309</v>
+        <v>26.13953336499222</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.03350434939279</v>
+        <v>30.09150851883099</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.03350265375321</v>
+        <v>31.95057963050711</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.0351764961772</v>
+        <v>26.34262679297129</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.03512547830059</v>
+        <v>31.2940882663448</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.03511451643099</v>
+        <v>33.37706203567367</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.03475720979976</v>
+        <v>31.76603124397405</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.03477767292326</v>
+        <v>35.34773134743781</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.03476349403605</v>
+        <v>36.96019658044678</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.03539281804322</v>
+        <v>30.46893634365318</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.03538742401405</v>
+        <v>34.01733225237292</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.03537514427886</v>
+        <v>35.82147871618908</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.03285444244984</v>
+        <v>36.09141182155246</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.03293001831804</v>
+        <v>38.67198496747298</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.03293305277754</v>
+        <v>39.87437545237518</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.0328134811048</v>
+        <v>35.84501075163363</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.03288135376844</v>
+        <v>39.94589468139614</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.03287844139721</v>
+        <v>41.86617205550206</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.03656460077712</v>
+        <v>18.55471717074418</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.03656490895083</v>
+        <v>20.60899311131536</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.03656520456615</v>
+        <v>21.16192360327181</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.03613987080509</v>
+        <v>16.82621371808819</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.03614001957817</v>
+        <v>17.87818943480908</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.03613798980624</v>
+        <v>18.7424982356699</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.03661260871941</v>
+        <v>17.53664526308506</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.0366076027128</v>
+        <v>18.52384655685355</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.03660514511644</v>
+        <v>19.46191267564062</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.0348629072832</v>
+        <v>17.93819085695606</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.03487880040161</v>
+        <v>19.10373202083865</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.03487945936434</v>
+        <v>19.57149350118916</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.03470934894988</v>
+        <v>17.96358857205929</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.03472279312198</v>
+        <v>19.9732631169509</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.03472284983773</v>
+        <v>20.64118196596607</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.03448077212769</v>
+        <v>17.75246317150891</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.03447064832257</v>
+        <v>21.6579177834576</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.03446667466935</v>
+        <v>22.80645931358398</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.03424921713846</v>
+        <v>13.23367832554682</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.03426003553084</v>
+        <v>15.74539348141191</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.03425180606376</v>
+        <v>17.05831386436959</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.03494747745022</v>
+        <v>14.10578566679926</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.03493887530883</v>
+        <v>16.55867561550859</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.03616824387838</v>
+        <v>19.97413421436463</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.03615658285185</v>
+        <v>25.47723068317602</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.036160448216</v>
+        <v>25.91181744124888</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.0359527190461</v>
+        <v>24.24749636054884</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.03595479923835</v>
+        <v>27.06904735094079</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.03595162019802</v>
+        <v>27.51160125956441</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.03643576927626</v>
+        <v>23.43018930802746</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.0364232419892</v>
+        <v>26.23069679432496</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.0364212165828</v>
+        <v>26.79069104691213</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.03455656396151</v>
+        <v>27.79543480903519</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.03460181070453</v>
+        <v>30.55132106985382</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.03460351013448</v>
+        <v>30.81170360204698</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.03445377964773</v>
+        <v>27.99147934579361</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.03449304738723</v>
+        <v>32.644955356211</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.03449283696981</v>
+        <v>33.02885499141006</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.03378602245167</v>
+        <v>21.02548760008455</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.03376764246151</v>
+        <v>30.87414933745016</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.03375880157601</v>
+        <v>32.29120585027594</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.03432725463005</v>
+        <v>29.40651512369561</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.03435862910486</v>
+        <v>35.89821873483181</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.03432169589211</v>
+        <v>36.72204062063474</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.03497095929909</v>
+        <v>27.6977575578153</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.03496198436861</v>
+        <v>33.83252325647406</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.03656480913137</v>
+        <v>16.79859481569884</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.03656706865918</v>
+        <v>22.25974969667119</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.03644141969074</v>
+        <v>22.76721477944717</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.0361078877535</v>
+        <v>20.88852300726209</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.03610404558453</v>
+        <v>23.74811959743323</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.03610881328691</v>
+        <v>24.24908671632814</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.03656966248693</v>
+        <v>20.31922170318968</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.03655343022635</v>
+        <v>23.14182611624482</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.03657086040928</v>
+        <v>23.78223776400467</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.03479006122817</v>
+        <v>24.23249969250636</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.03483080483142</v>
+        <v>27.00850794483316</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.03480874687393</v>
+        <v>27.30096000513219</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.0346715216432</v>
+        <v>24.51252091821268</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.03470372982456</v>
+        <v>29.19310610475088</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.03470406531049</v>
+        <v>29.62422953086189</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.03404851761267</v>
+        <v>17.930149775114</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.03402664439059</v>
+        <v>27.68788813543133</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.03495384246061</v>
+        <v>29.3376664495628</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.03457309823952</v>
+        <v>25.92229621264579</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.03458909416261</v>
+        <v>32.43146681353566</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.03454771586867</v>
+        <v>33.42521733192784</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.03517318921397</v>
+        <v>24.35074774234343</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.03515317064286</v>
+        <v>30.49148977239516</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.03731834278252</v>
+        <v>15.11125404362307</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.03732297468564</v>
+        <v>18.37839185062196</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.03736572991815</v>
+        <v>19.13358427411929</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.03710167365155</v>
+        <v>17.38799838206297</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.03710039817854</v>
+        <v>19.35667544399145</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.03710586747478</v>
+        <v>19.92282955302718</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.03745427864688</v>
+        <v>17.2421356571522</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.03744640268372</v>
+        <v>19.23783703961923</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.03746076520879</v>
+        <v>19.93986583547868</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.03611040468895</v>
+        <v>18.74973959140212</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.03612981149118</v>
+        <v>20.49145983889249</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.03611722889432</v>
+        <v>20.9594224815723</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.03601182233581</v>
+        <v>19.02436737745989</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.03602852960099</v>
+        <v>21.90606960184371</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.03602908983279</v>
+        <v>22.66567754978458</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.0356570861963</v>
+        <v>18.66428826815012</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.03564586666779</v>
+        <v>24.32126432453006</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.03603147680408</v>
+        <v>26.69313057935114</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.03571394090049</v>
+        <v>23.27589334108139</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.03572341251722</v>
+        <v>27.30425714591445</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.03570889728692</v>
+        <v>29.06110587846207</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.03622400238942</v>
+        <v>22.14089284727401</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.03621493596366</v>
+        <v>26.15998557612803</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.03448247860898</v>
+        <v>17.93232372418554</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.03151083718739</v>
+        <v>16.85542087530992</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.03237461977446</v>
+        <v>18.81813346312715</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.03237333718463</v>
+        <v>19.58362089563631</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.03218414868103</v>
+        <v>17.19344290892204</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.03222464977389</v>
+        <v>20.39958513442894</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.03221891018869</v>
+        <v>21.53588650980955</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.03411435112127</v>
+        <v>18.97153534068289</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.03406467556112</v>
+        <v>22.93437779207731</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.03425453515451</v>
+        <v>24.18982986478818</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.03370719882071</v>
+        <v>14.04616844226751</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.03370820983139</v>
+        <v>16.66694370020064</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.03370072261873</v>
+        <v>18.08155351876533</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.03446174362904</v>
+        <v>14.95254382453288</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.03444206710897</v>
+        <v>17.50389939698115</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.03443878468287</v>
+        <v>18.94237625509243</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.03159197608065</v>
+        <v>17.79960521142707</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.03164560067474</v>
+        <v>19.75794156829125</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.03165830834259</v>
+        <v>20.64022940512292</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.03145400847104</v>
+        <v>18.06757885881584</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.03149724825596</v>
+        <v>21.23738465598911</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.03149326711988</v>
+        <v>22.57338199096066</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.03380755514681</v>
+        <v>34.75735915532014</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.03064362872688</v>
+        <v>39.28861105468758</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.03256698031923</v>
+        <v>44.10479890809125</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.03260027618813</v>
+        <v>44.82476815847089</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.03243169588808</v>
+        <v>39.78705410494781</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.03251253957741</v>
+        <v>47.51001520286982</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.03249166949239</v>
+        <v>48.70592431725171</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.03400213382279</v>
+        <v>29.03172298126896</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.03390372716522</v>
+        <v>39.00958447410692</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.03415989677502</v>
+        <v>40.59254492832972</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.03372240839575</v>
+        <v>40.52052848758574</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.03373463486242</v>
+        <v>47.1442829810438</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.03369170291793</v>
+        <v>47.97096391725977</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.03442228929699</v>
+        <v>37.93490242332656</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.03439415540764</v>
+        <v>44.15202279290473</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.03435422642941</v>
+        <v>45.12095850507111</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.03164384027557</v>
+        <v>51.60015274145873</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.03176466257491</v>
+        <v>56.42033567305603</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.03179186282012</v>
+        <v>57.12745172089322</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.03161159944168</v>
+        <v>51.99766117328633</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.0316952949709</v>
+        <v>59.69929515693688</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.03167291580725</v>
+        <v>60.87244356858722</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.03443754689142</v>
+        <v>31.59765583214864</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.03190821818322</v>
+        <v>35.83781695810257</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.03287602468075</v>
+        <v>40.62970220679502</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.03289661033654</v>
+        <v>41.48923949599606</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.03273596127142</v>
+        <v>36.49728029679871</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.03281383769767</v>
+        <v>44.16724690028524</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.0327943794372</v>
+        <v>45.59165114583081</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.03425232020783</v>
+        <v>26.1496159642887</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.03439961274128</v>
+        <v>36.04699916690967</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.03438497428685</v>
+        <v>37.8676458793048</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.0339590481217</v>
+        <v>37.38397756979302</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.0339633498683</v>
+        <v>44.03446509431941</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.03392956483521</v>
+        <v>45.02852332295559</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.03463485443318</v>
+        <v>34.92220129941893</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.03459566184262</v>
+        <v>41.15083174964568</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.0345709687025</v>
+        <v>42.30679428573094</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.03197164754524</v>
+        <v>48.48421788060897</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.0321177442139</v>
+        <v>53.28843536594047</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.03209718193962</v>
+        <v>54.13509557298714</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.03192467863862</v>
+        <v>49.01931250550443</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.03200598021861</v>
+        <v>56.6818188272499</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.0319845305638</v>
+        <v>58.08346905401426</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.0357114380276</v>
+        <v>28.14511606165039</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.03418582442429</v>
+        <v>27.97183526708952</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.03429938093554</v>
+        <v>30.86973083944696</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.03429250076937</v>
+        <v>32.19531884260606</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.0341233183471</v>
+        <v>28.06361632870527</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.03416960219859</v>
+        <v>32.66884795917892</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.03416634832738</v>
+        <v>34.79499297757727</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.03565029701355</v>
+        <v>27.71808140585645</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.03566608280762</v>
+        <v>33.42243424235803</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.03564919874587</v>
+        <v>35.84802938763092</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.03530511780086</v>
+        <v>34.11757662175847</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.03531275416391</v>
+        <v>38.26051822341108</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.03529932890873</v>
+        <v>40.11577276304912</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.03586684013989</v>
+        <v>32.53081085699601</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.03585103726204</v>
+        <v>36.63719766115184</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.03583960221316</v>
+        <v>38.70673640834345</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.03361293534854</v>
+        <v>39.16081933713548</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.03375604611206</v>
+        <v>42.15892175072342</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.03374873084682</v>
+        <v>43.53430654166502</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.03355748399867</v>
+        <v>38.78542612703741</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.03361180939774</v>
+        <v>43.55358240029158</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.03360719830193</v>
+        <v>45.74922177620599</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.03757871496556</v>
+        <v>26.12571245651431</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.03751584051239</v>
+        <v>26.7254284379903</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.03751560635827</v>
+        <v>26.85010621346471</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.03723965486028</v>
+        <v>25.5965106645144</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.03723924302924</v>
+        <v>25.88859973409347</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.03723912739132</v>
+        <v>26.13375086923412</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.03758908556765</v>
+        <v>25.769986051028</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.03758941791399</v>
+        <v>26.04726231049123</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.03758943721667</v>
+        <v>26.30051291778692</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.03630075615602</v>
+        <v>25.96265516929897</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.03628714666637</v>
+        <v>26.30657247287004</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.03628690089216</v>
+        <v>26.4242074165093</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.03619287261141</v>
+        <v>25.98416255569415</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.03619478742691</v>
+        <v>26.58136369372669</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.03619438406123</v>
+        <v>26.74192248020777</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.03598575201538</v>
+        <v>23.63807035756244</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.03604297801498</v>
+        <v>24.71963800585311</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.0360406049706</v>
+        <v>25.02723078492166</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.03562503657537</v>
+        <v>21.75292558844259</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.0356255577496</v>
+        <v>22.44723734211868</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.03562299880497</v>
+        <v>22.80553691839056</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.03616819535591</v>
+        <v>22.14258984511535</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.03616567168224</v>
+        <v>22.82171845424569</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.03719765886171</v>
+        <v>25.06481112829712</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.03711486178209</v>
+        <v>26.51208700215691</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.03711758098522</v>
+        <v>26.68472573014007</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.03680030371988</v>
+        <v>25.79585419754425</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.03680193181362</v>
+        <v>26.49347660933704</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.03680313221661</v>
+        <v>26.62351573913159</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.03720493460749</v>
+        <v>25.73988250307053</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.03720351957162</v>
+        <v>26.41615518367743</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.03720521497094</v>
+        <v>26.59051045695864</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.03573067706293</v>
+        <v>26.72220429174022</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.03570568818613</v>
+        <v>27.44055139142335</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.03570514823539</v>
+        <v>27.496703677522</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.03559925857532</v>
+        <v>26.84991149164546</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.03560656100382</v>
+        <v>28.07364319474292</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.03560580436257</v>
+        <v>28.14750611140702</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.03543967435452</v>
+        <v>25.04869792933981</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.03568965179378</v>
+        <v>27.87208190075485</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.03568006567234</v>
+        <v>28.35021610727139</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.03528083834206</v>
+        <v>27.48953694819116</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.0352853852018</v>
+        <v>29.37547593966033</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.03527463229787</v>
+        <v>29.65908713089421</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.0358558195325</v>
+        <v>27.07069617060101</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.03584284462993</v>
+        <v>28.84005366456549</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.03740782050129</v>
+        <v>24.20935429906456</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.0372442697209</v>
+        <v>25.6393590439961</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.03724707674901</v>
+        <v>25.82825896177908</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.03694195003665</v>
+        <v>24.91109663569619</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.03694377316159</v>
+        <v>25.61138294730489</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.03694528844959</v>
+        <v>25.75821430062476</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.03732851365879</v>
+        <v>24.92321445824462</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.03732809868873</v>
+        <v>25.6014448637952</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.03733010073381</v>
+        <v>25.79771708796919</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.03592499627632</v>
+        <v>25.77161672072815</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.0358961173954</v>
+        <v>26.48901731290134</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.03589574666279</v>
+        <v>26.55508573407286</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.03579551560463</v>
+        <v>25.92101174605845</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.03580229781984</v>
+        <v>27.14163739594648</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.03580187721934</v>
+        <v>27.23029341092427</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.03565397705584</v>
+        <v>24.04487660113348</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.03589361903419</v>
+        <v>26.82716396401416</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.03588332860877</v>
+        <v>27.38305146006836</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.03549987384381</v>
+        <v>26.35491837330121</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.03550529552766</v>
+        <v>28.23316773867721</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.03549444757009</v>
+        <v>28.5670469034404</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.03604750751487</v>
+        <v>25.97728944160495</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.03603822483933</v>
+        <v>27.73496537381221</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.038100168748</v>
+        <v>25.72769319661682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.03804176444509</v>
+        <v>26.64832285875776</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.03804319335336</v>
+        <v>26.86153728417787</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.03782738608992</v>
+        <v>26.44700728578533</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.03782866092947</v>
+        <v>26.97752452778818</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.03782998969657</v>
+        <v>27.10211422362857</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.03810272280689</v>
+        <v>26.33158665486457</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.03810464697741</v>
+        <v>26.87102010674656</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.03810608544212</v>
+        <v>27.03542552305308</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.0370889792943</v>
+        <v>26.90382542453304</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.03707547935324</v>
+        <v>27.38944523778202</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.03707604448539</v>
+        <v>27.49807693470028</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.03700054698886</v>
+        <v>26.98209310785963</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.03700404087502</v>
+        <v>27.79073216731426</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.0370046197025</v>
+        <v>27.96948267577591</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.03685183749592</v>
+        <v>24.83829401419888</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.03693216656947</v>
+        <v>26.37857387481771</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.03692725314097</v>
+        <v>27.24460318375872</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.03662221888353</v>
+        <v>26.10378688875786</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.03662845420781</v>
+        <v>27.21296520065378</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.03662402173181</v>
+        <v>27.82353694668939</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.03704053872658</v>
+        <v>25.79842814725823</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.03704223327422</v>
+        <v>26.89116516770436</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.03609583394824</v>
+        <v>23.19495693831058</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.03413823107121</v>
+        <v>22.79307066642631</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.03414181288683</v>
+        <v>23.31819416938936</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.03414027689885</v>
+        <v>23.52119760212366</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.03399298044991</v>
+        <v>23.0318623945649</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.03400196004929</v>
+        <v>23.88469082001487</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.03400224879276</v>
+        <v>24.18283409026968</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.03558189647687</v>
+        <v>24.04500103377436</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.03561798167903</v>
+        <v>25.16165570495527</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.03561739711877</v>
+        <v>25.47462117169543</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.03515712090438</v>
+        <v>22.11637675455605</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.0351571966888</v>
+        <v>22.85440502477629</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.0351556940549</v>
+        <v>23.22594204939104</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.03575834416906</v>
+        <v>22.49886608732998</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.03575368426556</v>
+        <v>23.22114619260365</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.03575316858628</v>
+        <v>23.59549741160228</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.03351443700964</v>
+        <v>23.21055008690916</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.03351858972295</v>
+        <v>23.74130557292869</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.03351784940806</v>
+        <v>23.96831193381171</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.03335576058502</v>
+        <v>23.42987364066969</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.0333645376715</v>
+        <v>24.28268778985664</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.03336620689146</v>
+        <v>24.62360343389131</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.03550041142817</v>
+        <v>29.15254425737944</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.03366202369502</v>
+        <v>30.38466578963454</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.03371517758587</v>
+        <v>31.78977547288267</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.03371132552932</v>
+        <v>32.01614653556901</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.03354851901049</v>
+        <v>30.62291525346706</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.0335738006874</v>
+        <v>32.8770367079058</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.03357356617129</v>
+        <v>33.2475930525727</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.03526501697929</v>
+        <v>27.84852937042054</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.03527181491635</v>
+        <v>30.74309542196877</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.03526182303964</v>
+        <v>31.24256604481713</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.03484089864692</v>
+        <v>31.27626423076958</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.03484420902021</v>
+        <v>33.23231312928756</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.03483341128143</v>
+        <v>33.49146662853317</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.03546860008831</v>
+        <v>30.55769306671565</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.03544923194211</v>
+        <v>32.38787314059606</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.03544144256356</v>
+        <v>32.68268831803547</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.03305586247672</v>
+        <v>34.57464564174943</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.03313280997873</v>
+        <v>35.99664980168279</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.03312901441219</v>
+        <v>36.20092856416505</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.03294655272407</v>
+        <v>34.7710561121294</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.03297650969891</v>
+        <v>37.04119255495532</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.03297642814675</v>
+        <v>37.37605056084301</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.03583824589348</v>
+        <v>28.10219878967908</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.03396045926995</v>
+        <v>29.26510541415582</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.03400599754022</v>
+        <v>30.65146314132395</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.0340018753426</v>
+        <v>30.9252874482807</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.03384720628302</v>
+        <v>29.562633306314</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.03387167064247</v>
+        <v>31.78214389996132</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.03387087443071</v>
+        <v>32.23238603295478</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.03547582511202</v>
+        <v>26.97835148032043</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.03548828711794</v>
+        <v>29.83090834660404</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.03547733071635</v>
+        <v>30.4123487195819</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.03507020909983</v>
+        <v>30.31172941385215</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.03507516703887</v>
+        <v>32.26161242692383</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.03506379935717</v>
+        <v>32.57019979952269</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.0356694338283</v>
+        <v>29.62828721971139</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.03565558746893</v>
+        <v>31.44631878117333</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.03564706639095</v>
+        <v>31.79812014204122</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.03337056632361</v>
+        <v>33.62367232544342</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.03343575605157</v>
+        <v>35.02968511051457</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.03343150989706</v>
+        <v>35.28007032998647</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.03325775361767</v>
+        <v>33.86966131143242</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.03328687298614</v>
+        <v>36.11007877692077</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.03328603388736</v>
+        <v>36.52203625628997</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.03694704527333</v>
+        <v>27.58956346471765</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.03545706721394</v>
+        <v>27.53522522498237</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.03547592395702</v>
+        <v>28.33003021204528</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.03547499528679</v>
+        <v>28.77882312323399</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.0353523000402</v>
+        <v>27.65873142736291</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.03536609868173</v>
+        <v>28.92094122812558</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.03536754358565</v>
+        <v>29.63806343541769</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.0366251977665</v>
+        <v>27.06234598451821</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.03662423706009</v>
+        <v>28.60604237782268</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.0366182502001</v>
+        <v>29.49278408770684</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.03628730681154</v>
+        <v>28.58251350415237</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.0362938614861</v>
+        <v>29.72804583602742</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.03628880204842</v>
+        <v>30.37685327267553</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.03674648644395</v>
+        <v>28.22163367983726</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.03674731061684</v>
+        <v>29.34212604187256</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.03674333765252</v>
+        <v>30.0715975982015</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.03500070083839</v>
+        <v>30.04093111042152</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.03502798804788</v>
+        <v>30.8712308427705</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.03502678798008</v>
+        <v>31.33150678115047</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.03489004995467</v>
+        <v>30.02130304865819</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.03490623658934</v>
+        <v>31.34260649313001</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.03490735687089</v>
+        <v>32.07176921115327</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.142</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.358</v>
+        <v>22.025</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.137</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.102</v>
+        <v>21.988</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.63</v>
+        <v>20.669</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.73427486373188</v>
+        <v>-11.2651475809506</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.58036753236158</v>
+        <v>17.15554582569645</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.77779204118698</v>
+        <v>23.87372690223573</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.16218999485349</v>
+        <v>0.01434060180135077</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.58789968303201</v>
+        <v>10.61455492428492</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.92699145306679</v>
+        <v>15.73056444923772</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.37141497269887</v>
+        <v>7.694288644984468</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.77871906644316</v>
+        <v>15.58929425826069</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.13695396626867</v>
+        <v>19.16884890973792</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.63602964180754</v>
+        <v>20.23627128952536</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.12140183129197</v>
+        <v>26.68649092440695</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.29529203786641</v>
+        <v>29.13600313304188</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.60633929165886</v>
+        <v>9.470085863016166</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.44574284536936</v>
+        <v>25.53410713662392</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.68930418612915</v>
+        <v>30.25927418785319</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.52767266209097</v>
+        <v>-7.34873311970874</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.07194091504416</v>
+        <v>21.07441878398903</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.53359082066875</v>
+        <v>27.79337913077406</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.56124703916538</v>
+        <v>3.931180012976043</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.55573861568239</v>
+        <v>14.53315763739853</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.07451192528428</v>
+        <v>19.64964290842057</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.97012377078775</v>
+        <v>11.61231343859517</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.93658689305768</v>
+        <v>19.50864181817293</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.9922478372722</v>
+        <v>-6.666462803422164</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.16630874616951</v>
+        <v>21.75446207764243</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.35677307997952</v>
+        <v>28.47263872478869</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.68005907371445</v>
+        <v>4.613406419122398</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.76213772435531</v>
+        <v>15.21374517346239</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.95761879679085</v>
+        <v>20.32975045522518</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.34699949601372</v>
+        <v>12.29346029764112</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.4264276101291</v>
+        <v>20.1885689551108</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.66756011236524</v>
+        <v>23.7681190864463</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.09127924681562</v>
+        <v>24.83560415275771</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.16441879322847</v>
+        <v>31.28588120128155</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.26067894018253</v>
+        <v>33.73539429651954</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.14208966524643</v>
+        <v>14.06928949592374</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.95884341609371</v>
+        <v>30.13347861337719</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.09249424838402</v>
+        <v>34.85864414254878</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.57336992706809</v>
+        <v>-2.749511577489201</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.51937186952325</v>
+        <v>25.6738718146869</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.09898698073001</v>
+        <v>32.39282773449771</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.9730518822949</v>
+        <v>8.530782627539125</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.59035459427975</v>
+        <v>19.13288469377132</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.93731969218279</v>
+        <v>24.24936572288995</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.8062601264471</v>
+        <v>24.10845333292924</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.78431058124113</v>
+        <v>-4.017476656917765</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.94305418043695</v>
+        <v>24.40345328374384</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.16076654255266</v>
+        <v>31.12161584841523</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.41186514854033</v>
+        <v>7.262563395485259</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.50427588612509</v>
+        <v>17.8629271061766</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.72473298785381</v>
+        <v>22.97891939691932</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.17673469093704</v>
+        <v>14.94263508877829</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.26356294277517</v>
+        <v>22.83776758341436</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.53775746887512</v>
+        <v>26.4173099139838</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.73152833906843</v>
+        <v>27.48479676513865</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.80765564401569</v>
+        <v>33.93507776394621</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.9186608067815</v>
+        <v>36.3845866097703</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.81125698302736</v>
+        <v>16.71845467990671</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.63038503683071</v>
+        <v>32.78266691273338</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.78611087102999</v>
+        <v>37.50782467227647</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.33876195520167</v>
+        <v>-0.1002617229481615</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.24268228175372</v>
+        <v>28.32312672715149</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.9193761282573</v>
+        <v>35.04206856355678</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.58393914226165</v>
+        <v>11.18020332667642</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.1998598169074</v>
+        <v>21.78233034751123</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.61286995115838</v>
+        <v>26.898798384996</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.00280174971427</v>
+        <v>18.86146041716223</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.46708824965744</v>
+        <v>26.75791568432818</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.76867627758395</v>
+        <v>-9.201680915416532</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.1033567760424</v>
+        <v>19.21915170726938</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.38596975246508</v>
+        <v>25.937358598404</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.89364798511144</v>
+        <v>2.078015613656831</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.67688411085185</v>
+        <v>12.67831219980839</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.88482742945829</v>
+        <v>17.79434177722796</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.72274673704447</v>
+        <v>9.758009428268011</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.52539737270386</v>
+        <v>17.65308042851576</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.78333726835459</v>
+        <v>21.23265169089269</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.52138647586487</v>
+        <v>22.30008047798118</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.21922656520407</v>
+        <v>28.75033482930395</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.38496690899148</v>
+        <v>31.19985892171862</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.59002742642234</v>
+        <v>11.53381953254349</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.74630466140326</v>
+        <v>27.59794112425506</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.01355749952163</v>
+        <v>32.3231332388972</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.03570973703674</v>
+        <v>-5.284980640829858</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.26159464048411</v>
+        <v>23.13831048714407</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.29556783028938</v>
+        <v>29.85729665235807</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.87136241252884</v>
+        <v>5.995140855059518</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.45336049822825</v>
+        <v>16.5972007491754</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.20440549321975</v>
+        <v>21.71370607435769</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.44093791725334</v>
+        <v>13.67632005884037</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.01434820842809</v>
+        <v>21.57271383005993</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.48091585283388</v>
+        <v>23.08855148491899</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.98281461386001</v>
+        <v>24.15663763712338</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.76473390290971</v>
+        <v>30.60766734831249</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.05319185180896</v>
+        <v>33.05748014850384</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.16781572717622</v>
+        <v>13.38979776857242</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.44625531323832</v>
+        <v>29.45556770832992</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.86808576945263</v>
+        <v>34.18150066043246</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.21597623065938</v>
+        <v>0.7705067115715707</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.79786027938545</v>
+        <v>29.1933332274839</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.28575531564564</v>
+        <v>35.91235139072502</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.14116469120531</v>
+        <v>12.05088425701025</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.18760503826643</v>
+        <v>22.65301043940305</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.7348332554708</v>
+        <v>27.76960205937486</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.54856197744464</v>
+        <v>19.73217435674475</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.56518168510484</v>
+        <v>27.62865160864773</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.12385753313088</v>
+        <v>31.20862897449105</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>23.62017762159446</v>
+        <v>32.27706941632631</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.40302066151317</v>
+        <v>38.72811527278135</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.73372288512082</v>
+        <v>41.17797663617047</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23.76703805541552</v>
+        <v>21.51028769090966</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.0341738942668</v>
+        <v>37.5760595096839</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.53013878294812</v>
+        <v>42.30219429196963</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.18907241331582</v>
+        <v>27.68835848053699</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.92201539876755</v>
+        <v>28.75650732158546</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.87583833792673</v>
+        <v>35.20759444962734</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.15543300845412</v>
+        <v>37.65740813728645</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.18461847183877</v>
+        <v>17.98953821442537</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.3206221294961</v>
+        <v>34.05547600863282</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.77863301900534</v>
+        <v>38.78140744084159</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.05824478307671</v>
+        <v>5.369809707316918</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.07706199967843</v>
+        <v>33.7928677074009</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>32.70401646887014</v>
+        <v>40.51188144271897</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.72473890093647</v>
+        <v>16.65056832743302</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.41307412511696</v>
+        <v>27.25281895037598</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.74650278207974</v>
+        <v>32.36940632765949</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.71690144618141</v>
+        <v>24.33196427614077</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.24604622766364</v>
+        <v>32.22854457751352</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.62638070377901</v>
+        <v>35.80851742435165</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>37.16118656509702</v>
+        <v>36.87702055399281</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>39.12581313002573</v>
+        <v>43.32812382653243</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>39.38881033202375</v>
+        <v>45.77798607688011</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.36956050452817</v>
+        <v>26.11010959135776</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.50990361095604</v>
+        <v>42.17604926238529</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>40.94046734480689</v>
+        <v>46.90218252385638</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.92185015675144</v>
+        <v>30.33781303086245</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.54269269311333</v>
+        <v>31.40596365182888</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.47870790074958</v>
+        <v>37.85705472944393</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.81656133067</v>
+        <v>40.30686416722189</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.87190853268928</v>
+        <v>20.63896711437782</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.97336262983904</v>
+        <v>36.70492802411185</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.52801222147711</v>
+        <v>41.43085168508959</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.93618956418116</v>
+        <v>8.019079869614998</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.91404025187967</v>
+        <v>36.44214292697963</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.64221730471779</v>
+        <v>43.16114257774099</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.49259278314517</v>
+        <v>19.30000933299392</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.18252557656865</v>
+        <v>29.90228490961262</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.58170618840268</v>
+        <v>35.0188592941346</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.53526134449302</v>
+        <v>26.98142309796164</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.05965093533528</v>
+        <v>34.87802723480401</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.51508288759747</v>
+        <v>38.45799227955366</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.9335183048584</v>
+        <v>39.52649718750969</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.88444771258669</v>
+        <v>45.97760440943297</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>38.20516353631854</v>
+        <v>48.42746240916951</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.19757070774754</v>
+        <v>28.75955879454422</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>39.31053370086255</v>
+        <v>44.82552158030434</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>39.83653550841255</v>
+        <v>49.55164706820393</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.86921301727823</v>
+        <v>25.1526401092748</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.77034753241136</v>
+        <v>26.22073266699978</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.90208004331773</v>
+        <v>32.67179709657775</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.46379412263226</v>
+        <v>35.12162178197526</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.86786149521662</v>
+        <v>15.45381727423786</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.66486605525624</v>
+        <v>31.51968753913242</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.56442440475406</v>
+        <v>36.24564555744008</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.251965884485</v>
+        <v>2.834352941850298</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.47785412801802</v>
+        <v>31.25731868016227</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.54654707749814</v>
+        <v>37.97636266099313</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.58194618634382</v>
+        <v>14.11493885279437</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.21010500340955</v>
+        <v>24.71714730432019</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.01285882098689</v>
+        <v>29.83375897712871</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.02823303303286</v>
+        <v>21.7962747320736</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.63463861989521</v>
+        <v>29.69281737489372</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.53523899123409</v>
+        <v>33.27281135288401</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.57498179159228</v>
+        <v>34.34125820035401</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.74944685114272</v>
+        <v>40.79233877523485</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>33.33295333762772</v>
+        <v>43.24221202331422</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.4899893182236</v>
+        <v>23.57440095058929</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.35702990544428</v>
+        <v>39.6402730936443</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.2850319232605</v>
+        <v>44.36643294091768</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19.19036871683626</v>
+        <v>-2.793641630607326</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.78100207094435</v>
+        <v>25.62691122305024</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.25473274756956</v>
+        <v>32.34478835607571</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>17.59795814694539</v>
+        <v>8.486193090784596</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.34653846959129</v>
+        <v>19.08657068954587</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.03765716913331</v>
+        <v>24.20236949815855</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.19289429306765</v>
+        <v>16.16613856173241</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>18.89740590305445</v>
+        <v>24.06131824316221</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.66721802248977</v>
+        <v>27.64071164184885</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.43881895242589</v>
+        <v>28.70800782816322</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.33603007966463</v>
+        <v>35.15826693440944</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.6983334882896</v>
+        <v>37.60765495688942</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.55669700733252</v>
+        <v>17.94172293142118</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.12041418147335</v>
+        <v>34.00590218991512</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.63215296588395</v>
+        <v>38.73081587309777</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.75034102522269</v>
+        <v>1.121875189685753</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.85150904488393</v>
+        <v>29.54488648336964</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.85354191020669</v>
+        <v>36.26354282501622</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12.68403728179308</v>
+        <v>12.40213482534695</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.64488346317181</v>
+        <v>23.00427568329475</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.77827048771301</v>
+        <v>28.12055018449838</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.59409924390456</v>
+        <v>20.08326564722758</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.47472060575005</v>
+        <v>27.97976806378394</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.54780905255373</v>
+        <v>1.804890739293356</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.92342091409786</v>
+        <v>30.22567506400436</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.24584181547156</v>
+        <v>36.94354776584989</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.07153596290843</v>
+        <v>13.08510649211941</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>20.29733105693683</v>
+        <v>23.68560852115901</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.66929408941982</v>
+        <v>28.80140308507863</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>17.48303795241977</v>
+        <v>20.76515779407568</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.71032896162053</v>
+        <v>28.66044051893927</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.16883605153753</v>
+        <v>32.23982939655652</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.21934721957485</v>
+        <v>33.30718826878389</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.39631612787903</v>
+        <v>39.7575047873835</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.61921949884928</v>
+        <v>42.20689369575781</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.87259717732527</v>
+        <v>22.540774143268</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.55093377386789</v>
+        <v>38.60512124451976</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.88189031782421</v>
+        <v>43.3300334036236</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>14.98456466896171</v>
+        <v>5.720944305918252</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.93937525767538</v>
+        <v>34.1441870852815</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.17302539371282</v>
+        <v>40.8628389978909</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20.60571965204533</v>
+        <v>17.00158500535601</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.76579161706215</v>
+        <v>27.60385030391411</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.53105885753276</v>
+        <v>32.72012056211294</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>19.48878765793019</v>
+        <v>24.6828216716349</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.37877130083171</v>
+        <v>32.57942713859565</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>13.0224160088017</v>
+        <v>4.453761998183509</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.37235924395542</v>
+        <v>32.87455138173154</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.75386512108603</v>
+        <v>39.59241000074577</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>15.33658749098026</v>
+        <v>15.7341485747785</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>17.59356712168661</v>
+        <v>26.3346755584712</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.01716651716269</v>
+        <v>31.4504571313271</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.9723214000465</v>
+        <v>23.41421768977058</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.21667733613749</v>
+        <v>31.30952425032309</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.74428285324689</v>
+        <v>34.88890532677728</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>18.29265753238842</v>
+        <v>35.95626598496632</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.48411360294308</v>
+        <v>42.40658645348584</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.73499694945957</v>
+        <v>44.85597111223821</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.99932288354596</v>
+        <v>25.18982443295921</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.69606368724914</v>
+        <v>41.254194647972</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.06817167283277</v>
+        <v>45.97909903698793</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>12.40398741884952</v>
+        <v>8.370079267191286</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.29114976488308</v>
+        <v>36.79332710346058</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.71142463566795</v>
+        <v>43.51196493198235</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>17.65333924476671</v>
+        <v>19.65089080437225</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.82377001582163</v>
+        <v>30.25318105646103</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.73783088172693</v>
+        <v>35.36943832283761</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>16.66979395011046</v>
+        <v>27.33214528521059</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.56602376897374</v>
+        <v>35.2287745873714</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>12.84664554339503</v>
+        <v>-0.7302516502795555</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.4509434798703</v>
+        <v>27.69044041718168</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.04137013738424</v>
+        <v>34.40834336318552</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.92607872308191</v>
+        <v>10.54979141356797</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15.44396706278995</v>
+        <v>21.15025127427931</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.95996953580434</v>
+        <v>26.26607013363652</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>14.01311627162216</v>
+        <v>18.22978265301005</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.56904540235471</v>
+        <v>26.12502772045822</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.17477052124336</v>
+        <v>29.70443772895068</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>14.9858523663724</v>
+        <v>30.77174032467157</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.35091105465465</v>
+        <v>37.22203414617776</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.73694169467301</v>
+        <v>39.6714340518579</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.50167174899629</v>
+        <v>20.00537990950978</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.76726743593406</v>
+        <v>36.06965948533504</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.38148804893895</v>
+        <v>40.79459823016943</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.8572729439643</v>
+        <v>3.185550973523974</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>20.47373895551593</v>
+        <v>31.60870148978894</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.34467694611246</v>
+        <v>38.32738364784008</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>18.88249304738532</v>
+        <v>14.46601896732172</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.1302132816783</v>
+        <v>25.06824209399043</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.55799969836155</v>
+        <v>30.18453664797666</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>18.21407571675952</v>
+        <v>22.14719556509421</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.45847669147288</v>
+        <v>30.04376337228611</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.67848421363513</v>
+        <v>31.55951643360972</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.46773754106864</v>
+        <v>32.62747642368664</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.06056479884586</v>
+        <v>39.07854558714452</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.69895093789845</v>
+        <v>41.52823417386459</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.86210166824138</v>
+        <v>21.86053711862031</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>18.48488940099823</v>
+        <v>37.92646500385321</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.42280554316745</v>
+        <v>42.65214452051079</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.72805269995892</v>
+        <v>9.240303933926739</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.88183426631471</v>
+        <v>37.66298982476123</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.00667037891243</v>
+        <v>44.38170398213573</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>14.37111817825106</v>
+        <v>20.52102793459257</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.40725321599995</v>
+        <v>31.12331732521911</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.6371964947093</v>
+        <v>36.23969817714239</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.28247977843709</v>
+        <v>28.20231541923717</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.23748830426118</v>
+        <v>36.09896668731348</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.51497872921718</v>
+        <v>39.67878275555212</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.21743597976221</v>
+        <v>40.74709704330441</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>18.78968836309654</v>
+        <v>47.19818234250489</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.5414320762417</v>
+        <v>49.64791949395398</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.48926930772118</v>
+        <v>29.98021590464317</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.05311957539247</v>
+        <v>46.04614564004466</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.18521267744924</v>
+        <v>50.77202698874102</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.23102388298391</v>
+        <v>36.15917098853824</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.58160440675985</v>
+        <v>37.22719366648063</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.40422796297501</v>
+        <v>43.67832024593646</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.06805690032348</v>
+        <v>46.12800971946264</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.45282783106114</v>
+        <v>26.46012512550205</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.5842280497509</v>
+        <v>42.52622086398743</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.68424845383692</v>
+        <v>47.25189885899046</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.78467083179953</v>
+        <v>13.83945450049545</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.05311650843012</v>
+        <v>25.12055956696669</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.31616040272098</v>
+        <v>35.72297339708201</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.11564949471425</v>
+        <v>40.83935000509008</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.21034098785913</v>
+        <v>32.80195289627444</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.16661556175079</v>
+        <v>40.69870721344331</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.08404139503033</v>
+        <v>44.27851876171827</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>39.91680018121805</v>
+        <v>45.34689573599134</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>43.75143530578901</v>
+        <v>51.79803845044798</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>44.42897479386268</v>
+        <v>54.24777648817305</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>40.59426304204914</v>
+        <v>34.5798853620479</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>46.72616865322172</v>
+        <v>50.64598294848669</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>47.84553701288048</v>
+        <v>55.3718627743897</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.57101525520049</v>
+        <v>38.80851063568447</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.62416232899722</v>
+        <v>39.87653509478857</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.42379605472268</v>
+        <v>46.32766562349015</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>30.20179945887805</v>
+        <v>48.7773508467492</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.61793518738226</v>
+        <v>29.10943912578047</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.70091078661172</v>
+        <v>45.17555797775209</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.98516945628165</v>
+        <v>49.90122820093133</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.35366373410842</v>
+        <v>16.48860977079723</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.36485665526866</v>
+        <v>44.91153219860645</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.92995439985394</v>
+        <v>51.63022784096007</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.36186755109159</v>
+        <v>27.76988567270941</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.64848728102366</v>
+        <v>38.37232445508313</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.59681797919004</v>
+        <v>43.4886880700541</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.64575445155993</v>
+        <v>35.45129681795915</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.61905984852302</v>
+        <v>43.34807496913392</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>32.69523323493005</v>
+        <v>46.92787871491909</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.1996999331252</v>
+        <v>47.99625746849064</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.0238025546282</v>
+        <v>54.44740413152353</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>41.81525212281466</v>
+        <v>56.89713791813507</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.97610804395425</v>
+        <v>37.22921966698654</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>44.08045666246619</v>
+        <v>53.29534036547922</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.38320638590187</v>
+        <v>58.02121241760143</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.07097024362402</v>
+        <v>33.62352835360186</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.57040876825174</v>
+        <v>34.69149475102246</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.89035299159272</v>
+        <v>41.14259863240967</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.98682037571749</v>
+        <v>43.59229910347405</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.88682107075646</v>
+        <v>23.92447992304984</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.57013713231058</v>
+        <v>39.99050813279418</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.33196001024155</v>
+        <v>44.71621271377695</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.46010567900015</v>
+        <v>11.30407346730694</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.12002692572387</v>
+        <v>39.72689857825846</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.06084893964509</v>
+        <v>46.44563855120693</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.21417539792492</v>
+        <v>22.58500582776107</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.55697035599999</v>
+        <v>33.18737748711921</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.09319994356529</v>
+        <v>38.30377839033419</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.11108323865923</v>
+        <v>30.266339090177</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.42221592909045</v>
+        <v>38.16305574860532</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.13781549500732</v>
+        <v>41.74288842774742</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.21622156613429</v>
+        <v>42.81120912263704</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.63112784598651</v>
+        <v>49.2623291392771</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.7758052930563</v>
+        <v>51.71207817445806</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.08405312791218</v>
+        <v>32.0442524612596</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.92442948439676</v>
+        <v>48.11028251948041</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38.75108927313103</v>
+        <v>52.83618893137078</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.34335794719998</v>
+        <v>-6.197330898414279</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.09015856851498</v>
+        <v>22.22339587891271</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.58542057130185</v>
+        <v>28.94123453992405</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.85017863667001</v>
+        <v>5.082271761792086</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.71842263007601</v>
+        <v>15.68278006846084</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.45909801215215</v>
+        <v>20.79854788216575</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.43668505827737</v>
+        <v>12.7622361938236</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.255388859057</v>
+        <v>20.6575193237119</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.06548587516075</v>
+        <v>24.23688338236958</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.77199004972395</v>
+        <v>25.3041650883405</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.76522452088011</v>
+        <v>31.75447526480197</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.16048823038059</v>
+        <v>34.20384469263708</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.77576904955273</v>
+        <v>14.53785726435025</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.49583329694617</v>
+        <v>30.60214251212257</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.0578087224918</v>
+        <v>35.3270128032491</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.37346756893788</v>
+        <v>-2.282475254571622</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.72567569125072</v>
+        <v>26.14070996784928</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.76270084911345</v>
+        <v>32.85932784238652</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.41870001266252</v>
+        <v>8.997552299514737</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.55095426834206</v>
+        <v>19.5998238656888</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.72782051872091</v>
+        <v>24.71606737899198</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.25733160654032</v>
+        <v>16.67870207459556</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.32249960695207</v>
+        <v>24.57530794081528</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.0396641530306</v>
+        <v>-1.598819307264066</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.80923042931267</v>
+        <v>26.82213894292717</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.16447830038426</v>
+        <v>33.53997317218752</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.71816055656701</v>
+        <v>9.681164383796059</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.14835618204899</v>
+        <v>20.28179712164469</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.55283736657742</v>
+        <v>25.39756069033059</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.90669202281725</v>
+        <v>17.36123464637468</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.3385087749262</v>
+        <v>25.25662082036241</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.83225578014887</v>
+        <v>28.83598035787078</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.00443870625346</v>
+        <v>29.90332474877927</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.37126674960953</v>
+        <v>36.35369233826658</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.60084243833816</v>
+        <v>38.80306265191838</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.3290626910057</v>
+        <v>19.13688769559214</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.3247602582193</v>
+        <v>35.20134078766877</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.65998515980689</v>
+        <v>39.92620955428573</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.40825092923893</v>
+        <v>2.316573085128212</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.95205012346504</v>
+        <v>30.73998979446618</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.18391630278233</v>
+        <v>37.45860323946137</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.3788541109152</v>
+        <v>13.59698170257867</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.9744581479115</v>
+        <v>24.19937771030426</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.72671166295402</v>
+        <v>29.31561698025702</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.99039860819936</v>
+        <v>21.27823732150797</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.28661033743886</v>
+        <v>29.17494623944323</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>17.31527165619102</v>
+        <v>1.050055930721456</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.05419422456486</v>
+        <v>29.4710192392795</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.47544635171384</v>
+        <v>36.18883938553473</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.80881194959444</v>
+        <v>12.33021044538772</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.2720214134544</v>
+        <v>22.93086813814479</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.7298749687231</v>
+        <v>28.0466187156468</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.22324442734385</v>
+        <v>20.01029852076682</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.67444740198874</v>
+        <v>27.90570853061571</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.24076564549566</v>
+        <v>31.48506026691997</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.90198509476993</v>
+        <v>32.55240644402831</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.2847814661192</v>
+        <v>39.0027779837891</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.54386087832946</v>
+        <v>41.45214404777347</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.29140732977348</v>
+        <v>21.78594196460882</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.30780184018702</v>
+        <v>37.85041817020796</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.68662654343779</v>
+        <v>42.57527916670075</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.77304313197352</v>
+        <v>4.965712027006944</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.24044734791926</v>
+        <v>33.38913379340512</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.67412138594798</v>
+        <v>40.10773315455334</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.39371241477782</v>
+        <v>16.24629148345504</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.00034654302695</v>
+        <v>26.84871244454315</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.90422975658316</v>
+        <v>31.96493872262478</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.1304905875668</v>
+        <v>23.92756491706861</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.43089493647615</v>
+        <v>31.82429766993768</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.84837144143551</v>
+        <v>-4.13396159684099</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.68683417607002</v>
+        <v>24.2869043944727</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.32236245563688</v>
+        <v>31.0047688683983</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.71118217308831</v>
+        <v>7.145849404352376</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.39132311824133</v>
+        <v>17.74643997330499</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.9134204590373</v>
+        <v>22.86222783761242</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.59943064895022</v>
+        <v>14.82585960486098</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.31487553785656</v>
+        <v>22.72120812079415</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.94257884297617</v>
+        <v>26.30058878949355</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.9247828813034</v>
+        <v>27.36787690463417</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.41454463950917</v>
+        <v>33.81822179698226</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.82129964463836</v>
+        <v>36.26760310790247</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.24665429364273</v>
+        <v>16.60149356272827</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.71295651576959</v>
+        <v>32.66587912784929</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.36542034112507</v>
+        <v>37.39077448075695</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.16749326048446</v>
+        <v>-0.2188201507102434</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.08338074205907</v>
+        <v>28.20450429446056</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.10970728260569</v>
+        <v>34.92314798531176</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.96455981574244</v>
+        <v>11.06141576164841</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.44652548447488</v>
+        <v>21.66376959669016</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.96523637212945</v>
+        <v>26.78003316259755</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.08204727383479</v>
+        <v>18.74261131236393</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.55816905827316</v>
+        <v>26.63928256965245</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.55993852657458</v>
+        <v>28.15502697439776</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.42943275584157</v>
+        <v>29.22297249550549</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.13115211340056</v>
+        <v>35.67409273061675</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.80151813763115</v>
+        <v>38.12376272438873</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.72321838404415</v>
+        <v>18.45601027020963</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.51504541826986</v>
+        <v>34.52204415006749</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.50346962021258</v>
+        <v>39.24768027975905</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.83938371541475</v>
+        <v>5.836008699470327</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.24223000069823</v>
+        <v>34.25886851367342</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.39335366738724</v>
+        <v>40.97754420617561</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.54017615534417</v>
+        <v>17.11650062514128</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>17.76240556425461</v>
+        <v>27.71892071655772</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.03564926233484</v>
+        <v>32.8352705829475</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.40117540211536</v>
+        <v>24.79780706406451</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>18.55214495672206</v>
+        <v>32.69456177808264</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.85810913100432</v>
+        <v>36.27434851118257</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.63839859288058</v>
+        <v>37.34264833562465</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.32675033064156</v>
+        <v>43.79378470471387</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.10993924465708</v>
+        <v>46.24350326509524</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>18.84175248228364</v>
+        <v>26.57574427934266</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.58466539430949</v>
+        <v>42.64178000633139</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.76636287581124</v>
+        <v>47.36761797086423</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.12646134948508</v>
+        <v>32.75466075267003</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.87050806193012</v>
+        <v>33.82266896075807</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>39.02383101408245</v>
+        <v>40.27384661242128</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.66765650703391</v>
+        <v>42.72351749301721</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.45137301651438</v>
+        <v>23.05557749854621</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>42.11326734083708</v>
+        <v>39.1217792332907</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>43.17743881358474</v>
+        <v>43.84741384087387</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.96135241974948</v>
+        <v>10.43513849113016</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.61858957873047</v>
+        <v>38.85822978824628</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.99335016381032</v>
+        <v>45.57690105018095</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.63747839215312</v>
+        <v>21.71601148265326</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.34771436490439</v>
+        <v>32.31855601417909</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.11885047724726</v>
+        <v>37.43490163659057</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.48327704448197</v>
+        <v>29.39742376547498</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>39.85616926664858</v>
+        <v>37.29428152947868</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.75039910001276</v>
+        <v>40.87406374219928</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.12096727807817</v>
+        <v>41.94242625222138</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.28168663564868</v>
+        <v>48.39362003726048</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>50.92597121351513</v>
+        <v>50.84333948364657</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.5608459372322</v>
+        <v>31.17539296075985</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>53.21148882820069</v>
+        <v>47.2415965405727</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>54.27370287601731</v>
+        <v>51.96743298161984</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.43108167232102</v>
+        <v>35.40400438161488</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.89694412935707</v>
+        <v>36.47201437049593</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.02593261166885</v>
+        <v>42.92319597156394</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.79063126660115</v>
+        <v>45.37286260201905</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.6095295827663</v>
+        <v>25.70489548058607</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>39.22023827029584</v>
+        <v>41.77112032874608</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.48104391970619</v>
+        <v>46.49674716457106</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.48889147237059</v>
+        <v>13.08429774381217</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.08194919411851</v>
+        <v>41.50739409696781</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.66288395305112</v>
+        <v>48.22605127407088</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.92406216535987</v>
+        <v>24.36534157258212</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.6562713266534</v>
+        <v>34.96791105631395</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.57770988351523</v>
+        <v>40.08424368566138</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.88743663710568</v>
+        <v>32.04677167010301</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.27226272379389</v>
+        <v>39.94365326790923</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.3320398708052</v>
+        <v>43.5234276783258</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>43.40150300808389</v>
+        <v>44.59179196825802</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.54820045121691</v>
+        <v>51.04298970154413</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.31330133575104</v>
+        <v>53.49270489727088</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>43.95053726094177</v>
+        <v>33.8247312483709</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>50.56726970913131</v>
+        <v>49.89095794062418</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>51.82590650496578</v>
+        <v>54.61678660805957</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.27635583756251</v>
+        <v>30.21901821453106</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.96785532534446</v>
+        <v>31.28697014237061</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.45725464651214</v>
+        <v>37.73812509598987</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.61496852577087</v>
+        <v>40.18780697420631</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.13953336499222</v>
+        <v>20.51993239473099</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.09150851883099</v>
+        <v>36.58606659907038</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.95057963050711</v>
+        <v>41.31172779332475</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.34262679297129</v>
+        <v>7.899757554743942</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.2940882663448</v>
+        <v>36.32275658963569</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.37706203567367</v>
+        <v>43.04145809768603</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.76603124397405</v>
+        <v>19.1804578402356</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.34773134743781</v>
+        <v>29.78296020004167</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.96019658044678</v>
+        <v>34.89933011791244</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.46893634365318</v>
+        <v>26.86181005653647</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.01733225237292</v>
+        <v>34.75863016078405</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.82147871618908</v>
+        <v>38.33843350504755</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.09141182155246</v>
+        <v>39.40673973603351</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.67198496747298</v>
+        <v>45.85791082266668</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.87437545237518</v>
+        <v>48.30764126674627</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.84501075163363</v>
+        <v>28.6397601571713</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.94589468139614</v>
+        <v>44.70589620802026</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.86617205550206</v>
+        <v>49.43175923568778</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.55471717074418</v>
+        <v>-8.226692021555195</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.60899311131536</v>
+        <v>20.19409567751588</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.16192360327181</v>
+        <v>26.91197695216501</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.82621371808819</v>
+        <v>3.052854603350298</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.87818943480908</v>
+        <v>13.65334009618097</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.7424982356699</v>
+        <v>18.76916726911271</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.53664526308506</v>
+        <v>10.73282873787629</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.52384655685355</v>
+        <v>18.62809985089906</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.46191267564062</v>
+        <v>22.2075100163761</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.93819085695606</v>
+        <v>23.27483433293277</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.10373202083865</v>
+        <v>29.72513158767369</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.57149350118916</v>
+        <v>32.1745195773449</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.96358857205929</v>
+        <v>12.50858428352446</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.9732631169509</v>
+        <v>28.57283596220169</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.64118196596607</v>
+        <v>33.29775340011498</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.75246317150891</v>
+        <v>-4.311867476432653</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.6579177834576</v>
+        <v>24.11137869318885</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.80645931358398</v>
+        <v>30.83003918242038</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.23367832554682</v>
+        <v>6.968104032348393</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.74539348141191</v>
+        <v>17.57035280692754</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.05831386436959</v>
+        <v>22.68665568103508</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.10578566679926</v>
+        <v>14.64926351788507</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.55867561550859</v>
+        <v>22.54585738413415</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.97413421436463</v>
+        <v>-3.628174154051052</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.47723068317602</v>
+        <v>24.79284501887356</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.91181744124888</v>
+        <v>31.51072186204102</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.24749636054884</v>
+        <v>7.651753504041736</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.06904735094079</v>
+        <v>18.25236342872076</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.51160125956441</v>
+        <v>23.36818635713099</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.43018930802746</v>
+        <v>15.33183346948603</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.23069679432496</v>
+        <v>23.22720762694657</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.79069104691213</v>
+        <v>26.80661327158784</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.79543480903519</v>
+        <v>27.87400027484331</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.55132106985382</v>
+        <v>34.32435494308847</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.81170360204698</v>
+        <v>36.77374381839128</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.99147934579361</v>
+        <v>17.10762099673947</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.644955356211</v>
+        <v>33.17204051887406</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.02885499141006</v>
+        <v>37.89695643286917</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.02548760008455</v>
+        <v>0.2871871463239728</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.87414933745016</v>
+        <v>28.71066480319622</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.29120585027594</v>
+        <v>35.42932086314956</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.40651512369561</v>
+        <v>11.56753972013691</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.89821873483181</v>
+        <v>22.16991293657999</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.72204062063474</v>
+        <v>27.28621156789929</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.6977575578153</v>
+        <v>19.248805049696</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.83252325647406</v>
+        <v>27.14550196762947</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.79859481569884</v>
+        <v>-0.9792889365971718</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.25974969667119</v>
+        <v>27.44173529544186</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.76721477944717</v>
+        <v>34.1595980553666</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.88852300726209</v>
+        <v>10.30080954797133</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.74811959743323</v>
+        <v>20.90144442735665</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.24908671632814</v>
+        <v>26.01725436460312</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.31922170318968</v>
+        <v>17.9809073253822</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.14182611624482</v>
+        <v>25.87630531930064</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.78223776400467</v>
+        <v>29.45570316265425</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.23249969250636</v>
+        <v>30.52309195218312</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.00850794483316</v>
+        <v>36.97345057034205</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.30096000513219</v>
+        <v>39.42283519602201</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.51252091821268</v>
+        <v>19.7566852475385</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.19310610475088</v>
+        <v>35.82112788378778</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.62422953086189</v>
+        <v>40.54603602786655</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.930149775114</v>
+        <v>2.9363360717456</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.68788813543133</v>
+        <v>31.35981878592021</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.3376664495628</v>
+        <v>38.07846076189914</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.92229621264579</v>
+        <v>14.21685948554797</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.43146681353566</v>
+        <v>24.81925765549398</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.42521733192784</v>
+        <v>29.93554329500161</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.35074774234343</v>
+        <v>21.89814262981817</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.49148977239516</v>
+        <v>29.79486338319545</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.11125404362307</v>
+        <v>-6.163328336419553</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>18.37839185062196</v>
+        <v>22.25759857767902</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.13358427411929</v>
+        <v>28.97550566546501</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.38799838206297</v>
+        <v>5.116426631572622</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.35667544399145</v>
+        <v>15.7169943872283</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.92282955302718</v>
+        <v>20.83284161142639</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.2421356571522</v>
+        <v>12.79644653437914</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.23783703961923</v>
+        <v>20.69178303445803</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.93986583547868</v>
+        <v>24.27120981003988</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.74973959140212</v>
+        <v>25.33854053615882</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.49145983889249</v>
+        <v>31.78887250717607</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.9594224815723</v>
+        <v>34.23827237973479</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.02436737745989</v>
+        <v>14.57221496900526</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.90606960184371</v>
+        <v>30.63656696494049</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.66567754978458</v>
+        <v>35.36150946522709</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.66428826815012</v>
+        <v>-2.248217984403468</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.32126432453006</v>
+        <v>26.17516740797784</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.69313057935114</v>
+        <v>32.89385371426114</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.27589334108139</v>
+        <v>9.031961882757642</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.30425714591445</v>
+        <v>19.63429292656987</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.06110587846207</v>
+        <v>24.75061585389734</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.14089284727401</v>
+        <v>16.71316714370677</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.15998557612803</v>
+        <v>24.60982640157262</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.93232372418554</v>
+        <v>26.12562252608576</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.85542087530992</v>
+        <v>27.19361064042609</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>18.81813346312715</v>
+        <v>33.64471796115369</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.58362089563631</v>
+        <v>36.09440651705837</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.19344290892204</v>
+        <v>16.42670617532157</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.39958513442894</v>
+        <v>32.49270650705365</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.53588650980955</v>
+        <v>37.21838978777238</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>18.97153534068289</v>
+        <v>3.806872329355329</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.93437779207731</v>
+        <v>32.22979309772315</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.18982986478818</v>
+        <v>38.94851139843867</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.04616844226751</v>
+        <v>15.08730822115514</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.66694370020064</v>
+        <v>25.68970552772761</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.08155351876533</v>
+        <v>30.80611474801175</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.95254382453288</v>
+        <v>22.76862437390947</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.50389939698115</v>
+        <v>30.66536709320668</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.94237625509243</v>
+        <v>34.24519993050048</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>17.79960521142707</v>
+        <v>35.31354234574088</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.75794156829125</v>
+        <v>41.76466580373166</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.64022940512292</v>
+        <v>44.21440292342756</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.06757885881584</v>
+        <v>24.54669604077289</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.23738465598911</v>
+        <v>40.61269822978683</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.57338199096066</v>
+        <v>45.33858333913055</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.75735915532014</v>
+        <v>30.72526258979714</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.28861105468758</v>
+        <v>31.79331339178135</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.10479890809125</v>
+        <v>38.24447813010956</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.82476815847089</v>
+        <v>40.69416757282285</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.78705410494781</v>
+        <v>21.02627969104346</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.51001520286982</v>
+        <v>37.0924478771292</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.70592431725171</v>
+        <v>41.81812963626886</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.03172298126896</v>
+        <v>8.40600840793924</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.00958447410692</v>
+        <v>36.82916065955546</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.59254492832972</v>
+        <v>43.54787453020914</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.52052848758574</v>
+        <v>19.68682536728751</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>47.1442829810438</v>
+        <v>30.28934711441697</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.97096391725977</v>
+        <v>35.40575209117175</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.93490242332656</v>
+        <v>27.368247364597</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>44.15202279290473</v>
+        <v>35.26509313403893</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.12095850507111</v>
+        <v>38.84492145148228</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>51.60015274145873</v>
+        <v>39.91332655373436</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.42033567305603</v>
+        <v>46.36450742775618</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.12745172089322</v>
+        <v>48.81424543368952</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.99766117328633</v>
+        <v>29.14635101415196</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.69929515693688</v>
+        <v>45.21252105541295</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>60.87244356858722</v>
+        <v>49.93840464180484</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.59765583214864</v>
+        <v>33.37461620385422</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.83781695810257</v>
+        <v>34.44266878683767</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.62970220679502</v>
+        <v>40.89383747431397</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.48923949599606</v>
+        <v>43.34352266696511</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.49728029679871</v>
+        <v>23.67560765782265</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.16724690028524</v>
+        <v>39.74179895777344</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.59165114583081</v>
+        <v>44.46747294522221</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.1496159642887</v>
+        <v>11.05517764432194</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.04699916690967</v>
+        <v>39.47833495278179</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.8676458793048</v>
+        <v>46.19703473835513</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.38397756979302</v>
+        <v>22.33616544261737</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.03446509431941</v>
+        <v>32.93871214239586</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.02852332295559</v>
+        <v>38.05510412609136</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.92220129941893</v>
+        <v>30.01760525464898</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.15083174964568</v>
+        <v>37.91447485836501</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.30679428573094</v>
+        <v>41.49429537359767</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.48421788060897</v>
+        <v>42.56270225580433</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>53.28843536594047</v>
+        <v>49.01388707881985</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>54.13509557298714</v>
+        <v>51.46362083389387</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.01931250550443</v>
+        <v>31.79569928787534</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>56.6818188272499</v>
+        <v>47.86189244199353</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>58.08346905401426</v>
+        <v>52.58776825481756</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.14511606165039</v>
+        <v>28.18960815570519</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.97183526708952</v>
+        <v>29.25760267673094</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.86973083944696</v>
+        <v>35.70874471644869</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.19531884260606</v>
+        <v>38.15844515687537</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.06361632870527</v>
+        <v>18.49062269011928</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.66884795917892</v>
+        <v>34.55672334576413</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.79499297757727</v>
+        <v>39.28243169157999</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.71808140585645</v>
+        <v>5.87061557510107</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.42243424235803</v>
+        <v>34.29367556451145</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.84802938763092</v>
+        <v>41.01241968132742</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.11757662175847</v>
+        <v>17.15125982737699</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.26051822341108</v>
+        <v>27.75373940293709</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.11577276304912</v>
+        <v>32.87016867543981</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>32.53081085699601</v>
+        <v>24.83262175773429</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.63719766115184</v>
+        <v>32.72942986782256</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.70673640834345</v>
+        <v>36.3092793165854</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.16081933713548</v>
+        <v>37.37762813905557</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.15892175072342</v>
+        <v>43.82878631529515</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.53430654166502</v>
+        <v>46.27853531893903</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.78542612703741</v>
+        <v>26.61070631233169</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>43.55358240029158</v>
+        <v>42.67680882467586</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.74922177620599</v>
+        <v>47.4027189977793</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.12571245651431</v>
+        <v>3.315453003742633</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.7254284379903</v>
+        <v>31.73685425045677</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.85010621346471</v>
+        <v>38.45513360034921</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.5965106645144</v>
+        <v>14.59580728061077</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.88859973409347</v>
+        <v>25.19646024858697</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.13375086923412</v>
+        <v>30.31255600350541</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.769986051028</v>
+        <v>22.27614203723444</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.04726231049123</v>
+        <v>30.17149249947944</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.30051291778692</v>
+        <v>33.75111289810924</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.96265516929897</v>
+        <v>34.81833350621993</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.30657247287004</v>
+        <v>41.26876995086162</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.4242074165093</v>
+        <v>43.71831718472141</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.98416255569415</v>
+        <v>24.05164697045656</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.58136369372669</v>
+        <v>40.11625953824195</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.74192248020777</v>
+        <v>44.84150671159388</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.63807035756244</v>
+        <v>7.232067799034567</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.71963800585311</v>
+        <v>35.65592757940523</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.02723078492166</v>
+        <v>42.37498619623922</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.75292558844259</v>
+        <v>18.51284704032516</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.44723734211868</v>
+        <v>29.11526334035797</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.80553691839056</v>
+        <v>34.23183483488778</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.14258984511535</v>
+        <v>26.19436719959334</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.82171845424569</v>
+        <v>34.09104045157461</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.06481112829712</v>
+        <v>7.914258187184728</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.51208700215691</v>
+        <v>36.33589091311354</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.68472573014007</v>
+        <v>43.05416583312514</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.79585419754425</v>
+        <v>19.19499351206174</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.49347660933704</v>
+        <v>29.79577091522266</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.62351573913159</v>
+        <v>34.91186242604353</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.73988250307053</v>
+        <v>26.87543410597574</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.41615518367743</v>
+        <v>34.77088761501888</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.59051045695864</v>
+        <v>38.35050349332359</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.72220429174022</v>
+        <v>39.41778678854452</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.44055139142335</v>
+        <v>45.868280647882</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.496703677522</v>
+        <v>48.31782876817523</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.84991149164546</v>
+        <v>28.65097101825565</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.07364319474292</v>
+        <v>44.7157514345637</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.14750611140702</v>
+        <v>49.44099708530304</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.04869792933981</v>
+        <v>11.83140975479297</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.87208190075485</v>
+        <v>40.25550102872093</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.35021610727139</v>
+        <v>46.97455521798203</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.48953694819116</v>
+        <v>23.11257007662006</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.37547593966033</v>
+        <v>33.71511082165524</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.65908713089421</v>
+        <v>38.83167807376311</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.07069617060101</v>
+        <v>30.7941960867828</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.84005366456549</v>
+        <v>38.69097239255792</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.20935429906456</v>
+        <v>10.56324753804905</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.6393590439961</v>
+        <v>38.98488532328476</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.82825896177908</v>
+        <v>45.70314616026145</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.91109663569619</v>
+        <v>21.84415369360057</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.61138294730489</v>
+        <v>32.44495605275803</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.75821430062476</v>
+        <v>37.56103457240796</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.92321445824462</v>
+        <v>29.52461210192929</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.6014448637952</v>
+        <v>37.42008944804572</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.79771708796919</v>
+        <v>40.99969752521623</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.77161672072815</v>
+        <v>42.06698260597217</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.48901731290134</v>
+        <v>48.51748041575867</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.55508573407286</v>
+        <v>50.96702428620712</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.92101174605845</v>
+        <v>31.30013940780397</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.14163739594648</v>
+        <v>47.3649429390647</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.23029341092427</v>
+        <v>52.09018081977491</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.04487660113348</v>
+        <v>14.48066281673563</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.82716396401416</v>
+        <v>42.90475914827097</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.38305146006836</v>
+        <v>49.62379925343511</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.35491837330121</v>
+        <v>25.76199398429482</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.23316773867721</v>
+        <v>36.36455968378574</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.5670469034404</v>
+        <v>41.48111394360127</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.97728944160495</v>
+        <v>33.44363781010067</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.73496537381221</v>
+        <v>41.34043795225047</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.72769319661682</v>
+        <v>5.378978676561829</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.64832285875776</v>
+        <v>33.80051914198317</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.86153728417787</v>
+        <v>40.51882430667742</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.44700728578533</v>
+        <v>16.65954130474235</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.97752452778818</v>
+        <v>27.26027653853806</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.10211422362857</v>
+        <v>32.37639234573534</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.33158665486457</v>
+        <v>24.33992183315981</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.87102010674656</v>
+        <v>32.23533768398921</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.03542552305308</v>
+        <v>35.81497469398506</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.90382542453304</v>
+        <v>36.88220170963088</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.38944523778202</v>
+        <v>43.33267287143487</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.49807693470028</v>
+        <v>45.78223198909963</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.98209310785963</v>
+        <v>26.11543965160685</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.79073216731426</v>
+        <v>42.18015254074864</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.96948267577591</v>
+        <v>46.90542477778946</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.83829401419888</v>
+        <v>9.295879288957181</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.37857387481771</v>
+        <v>37.71987829676949</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.24460318375872</v>
+        <v>44.43896273229383</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.10378688875786</v>
+        <v>20.57686689800768</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.21296520065378</v>
+        <v>31.17936547011938</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.82353694668939</v>
+        <v>36.29595701872064</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.79842814725823</v>
+        <v>28.25843283643475</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.89116516770436</v>
+        <v>36.15517148171661</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>23.19495693831058</v>
+        <v>37.67101585976106</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.79307066642631</v>
+        <v>38.73890025539403</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.31819416938936</v>
+        <v>45.19014678943769</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.52119760212366</v>
+        <v>47.63999461267066</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.0318623945649</v>
+        <v>27.97155926795791</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.88469082001487</v>
+        <v>44.03792053064195</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.18283409026968</v>
+        <v>48.76393360006365</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.04500103377436</v>
+        <v>15.35055162661685</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.16165570495527</v>
+        <v>43.77408599796856</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.47462117169543</v>
+        <v>50.49320243038825</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.11637675455605</v>
+        <v>26.63179525030627</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.85440502477629</v>
+        <v>37.23436009852391</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.22594204939104</v>
+        <v>42.35103794427131</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.49886608732998</v>
+        <v>34.31347206722445</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.22114619260365</v>
+        <v>42.21029418382103</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.59549741160228</v>
+        <v>45.79033729228787</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.21055008690916</v>
+        <v>46.85857599578539</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.74130557292869</v>
+        <v>53.30983866975409</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.96831193381171</v>
+        <v>55.7597350573317</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.42987364066969</v>
+        <v>36.09129317380486</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.28268778985664</v>
+        <v>52.15765629617921</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.62360343389131</v>
+        <v>56.88387120047197</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.15254425737944</v>
+        <v>42.27094328143325</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.38466578963454</v>
+        <v>43.33889036655593</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.78977547288267</v>
+        <v>49.79019431871144</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.01614653556901</v>
+        <v>52.24004302927109</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.62291525346706</v>
+        <v>32.57142013684371</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>32.8770367079058</v>
+        <v>48.63794925858373</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.2475930525727</v>
+        <v>53.36396080776218</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.84852937042054</v>
+        <v>19.94997503256913</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.74309542196877</v>
+        <v>48.37374089331219</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.24256604481713</v>
+        <v>55.09285289693754</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.27626423076958</v>
+        <v>31.23159973996668</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.23231312928756</v>
+        <v>41.83428903199867</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.49146662853317</v>
+        <v>46.95096263467521</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.55769306671565</v>
+        <v>38.91338240765846</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.38787314059606</v>
+        <v>46.81030757666635</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>32.68268831803547</v>
+        <v>50.39034616600283</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.57464564174943</v>
+        <v>51.45864755782669</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.99664980168279</v>
+        <v>57.90996764866442</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.20092856416505</v>
+        <v>60.35986492303711</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.7710561121294</v>
+        <v>40.69123549459347</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.04119255495532</v>
+        <v>56.7577664734746</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>37.37605056084301</v>
+        <v>61.48397985600867</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.10219878967908</v>
+        <v>44.92040103948172</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.26510541415582</v>
+        <v>45.98834990486183</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.65146314132395</v>
+        <v>52.43965780637576</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.9252874482807</v>
+        <v>54.88950226683995</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.562633306314</v>
+        <v>35.22085224548654</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.78214389996132</v>
+        <v>51.28740448212569</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.23238603295478</v>
+        <v>56.01340825930926</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.97835148032043</v>
+        <v>22.5992484037795</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.83090834660404</v>
+        <v>51.02301932131981</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.4123487195819</v>
+        <v>57.74211724002306</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.31172941385215</v>
+        <v>33.88104395539723</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.26161242692383</v>
+        <v>44.48375820053845</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>32.57019979952269</v>
+        <v>49.6004188097519</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.62828721971139</v>
+        <v>41.56284443933045</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.44631878117333</v>
+        <v>49.45979344293586</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.79812014204122</v>
+        <v>53.03982422978687</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.62367232544342</v>
+        <v>54.10812740072403</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.02968511051457</v>
+        <v>60.55945144064471</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.28007032998647</v>
+        <v>63.00934446405564</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.86966131143242</v>
+        <v>43.34068790800758</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.11007877692077</v>
+        <v>59.40724200066064</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.52203625628997</v>
+        <v>64.13344760923441</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.58956346471765</v>
+        <v>39.73516350265415</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.53522522498237</v>
+        <v>40.80305430425518</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.33003021204528</v>
+        <v>47.25433555701694</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.77882312323399</v>
+        <v>49.70419526548621</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.65873142736291</v>
+        <v>30.03563779010973</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.92094122812558</v>
+        <v>46.10209938109223</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.63806343541769</v>
+        <v>50.82813751679534</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.06234598451821</v>
+        <v>17.41445686656745</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.60604237782268</v>
+        <v>45.83813046365277</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.49278408770684</v>
+        <v>52.55727271353693</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.58251350415237</v>
+        <v>28.69590886054972</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.72804583602742</v>
+        <v>39.29855598055805</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.37685327267553</v>
+        <v>44.41525387938772</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.22163367983726</v>
+        <v>36.37763145825899</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.34212604187256</v>
+        <v>44.27451896766787</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.0715975982015</v>
+        <v>47.85457868836865</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.04093111042152</v>
+        <v>48.92282379783013</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.8712308427705</v>
+        <v>55.37412119037084</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.33150678115047</v>
+        <v>57.82402946234312</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.02130304865819</v>
+        <v>38.15546544906285</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.34260649313001</v>
+        <v>54.22192889861346</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>32.07176921115327</v>
+        <v>58.94816886751723</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-11.2651475809506</v>
+        <v>-11.26514758095389</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.15554582569645</v>
+        <v>17.1555458257542</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.87372690223573</v>
+        <v>23.87372690224653</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01434060180135077</v>
+        <v>0.0143406018227239</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.61455492428492</v>
+        <v>10.61455492432869</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.73056444923772</v>
+        <v>15.73056444926682</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.694288644984468</v>
+        <v>7.694288645048928</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15.58929425826069</v>
+        <v>15.58929425825239</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.16884890973792</v>
+        <v>19.16884890974315</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.23627128952536</v>
+        <v>20.23627128952423</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.68649092440695</v>
+        <v>26.68649092435875</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.13600313304188</v>
+        <v>29.1360031330387</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.470085863016166</v>
+        <v>9.470085863026057</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.53410713662392</v>
+        <v>25.53410713662653</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.25927418785319</v>
+        <v>30.25927418777441</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-7.34873311970874</v>
+        <v>-7.348733119759785</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.07441878398903</v>
+        <v>21.07441878393912</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.79337913077406</v>
+        <v>27.79337913081055</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.931180012976043</v>
+        <v>3.931180013037206</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.53315763739853</v>
+        <v>14.53315763740581</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.64964290842057</v>
+        <v>19.64964290850061</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.61231343859517</v>
+        <v>11.61231343861074</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.50864181817293</v>
+        <v>19.50864181816236</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-6.666462803422164</v>
+        <v>-6.666462803389422</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.75446207764243</v>
+        <v>21.7544620776679</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.47263872478869</v>
+        <v>28.47263872483599</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.613406419122398</v>
+        <v>4.613406419137974</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.21374517346239</v>
+        <v>15.21374517346545</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.32975045522518</v>
+        <v>20.32975045525417</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.29346029764112</v>
+        <v>12.29346029778004</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.1885689551108</v>
+        <v>20.18856895509317</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.7681190864463</v>
+        <v>23.76811908645415</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.83560415275771</v>
+        <v>24.83560415274304</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.28588120128155</v>
+        <v>31.28588120126302</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.73539429651954</v>
+        <v>33.73539429651409</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.06928949592374</v>
+        <v>14.06928949593465</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.13347861337719</v>
+        <v>30.13347861332592</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.85864414254878</v>
+        <v>34.85864414252048</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-2.749511577489201</v>
+        <v>-2.74951157746726</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.6738718146869</v>
+        <v>25.67387181470293</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.39282773449771</v>
+        <v>32.39282773453205</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.530782627539125</v>
+        <v>8.530782627499107</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.13288469377132</v>
+        <v>19.13288469381668</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.24936572288995</v>
+        <v>24.24936572289904</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.10845333292924</v>
+        <v>24.10845333286467</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-4.017476656917765</v>
+        <v>-4.017476656894232</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.40345328374384</v>
+        <v>24.40345328374157</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.12161584841523</v>
+        <v>31.12161584842376</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.262563395485259</v>
+        <v>7.262563395464227</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.8629271061766</v>
+        <v>17.86292710614454</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.97891939691932</v>
+        <v>22.97891939690841</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.94263508877829</v>
+        <v>14.94263508878875</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.83776758341436</v>
+        <v>22.83776758343608</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.4173099139838</v>
+        <v>26.41730991404155</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.48479676513865</v>
+        <v>27.4847967650668</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.93507776394621</v>
+        <v>33.93507776390278</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.3845866097703</v>
+        <v>36.3845866097313</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.71845467990671</v>
+        <v>16.71845467991444</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.78266691273338</v>
+        <v>32.78266691267164</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.50782467227647</v>
+        <v>37.50782467215903</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.1002617229481615</v>
+        <v>-0.1002617229446372</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.32312672715149</v>
+        <v>28.32312672717877</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.04206856355678</v>
+        <v>35.0420685635461</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.18020332667642</v>
+        <v>11.18020332652522</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.78233034751123</v>
+        <v>21.78233034752476</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.898798384996</v>
+        <v>26.89879838494097</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.86146041716223</v>
+        <v>18.86146041714359</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.75791568432818</v>
+        <v>26.75791568433694</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-9.201680915416532</v>
+        <v>-9.201680915414485</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.21915170726938</v>
+        <v>19.21915170725482</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.937358598404</v>
+        <v>25.93735859848404</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.078015613656831</v>
+        <v>2.078015613687754</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.67831219980839</v>
+        <v>12.67831219981385</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.79434177722796</v>
+        <v>17.79434177724842</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9.758009428268011</v>
+        <v>9.758009428277902</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.65308042851576</v>
+        <v>17.65308042857306</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.23265169089269</v>
+        <v>21.23265169100945</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.30008047798118</v>
+        <v>22.30008047790888</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.75033482930395</v>
+        <v>28.75033482931225</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.19985892171862</v>
+        <v>31.19985892160504</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.53381953254349</v>
+        <v>11.5338195325851</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.59794112425506</v>
+        <v>27.59794112428121</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.3231332388972</v>
+        <v>32.32313323891925</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-5.284980640829858</v>
+        <v>-5.284980640761759</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.13831048714407</v>
+        <v>23.13831048717215</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.85729665235807</v>
+        <v>29.85729665236796</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.995140855059518</v>
+        <v>5.995140855052583</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.5972007491754</v>
+        <v>16.59720074922144</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.71370607435769</v>
+        <v>21.71370607438668</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>13.67632005884037</v>
+        <v>13.67632005887255</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.57271383005993</v>
+        <v>21.57271383007061</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.08855148491899</v>
+        <v>23.08855148491968</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.15663763712338</v>
+        <v>24.15663763712736</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.60766734831249</v>
+        <v>30.60766734833489</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.05748014850384</v>
+        <v>33.05748014855546</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.38979776857242</v>
+        <v>13.38979776858731</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.45556770832992</v>
+        <v>29.45556770835221</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.18150066043246</v>
+        <v>34.18150066041848</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.7705067115715707</v>
+        <v>0.7705067115459912</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.1933332274839</v>
+        <v>29.19333322746844</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.91235139072502</v>
+        <v>35.91235139075071</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>12.05088425701025</v>
+        <v>12.05088425706334</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.65301043940305</v>
+        <v>22.65301043947899</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.76960205937486</v>
+        <v>27.76960205937134</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.73217435674475</v>
+        <v>19.73217435678886</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.62865160864773</v>
+        <v>27.62865160863727</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.20862897449105</v>
+        <v>31.20862897448377</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.27706941632631</v>
+        <v>32.27706941630812</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.72811527278135</v>
+        <v>38.72811527277385</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.17797663617047</v>
+        <v>41.17797663616297</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.51028769090966</v>
+        <v>21.51028769087578</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>37.5760595096839</v>
+        <v>37.57605950968185</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.30219429196963</v>
+        <v>42.3021942919769</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.68835848053699</v>
+        <v>27.68835848056837</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.75650732158546</v>
+        <v>28.75650732160695</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.20759444962734</v>
+        <v>35.20759444962711</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.65740813728645</v>
+        <v>37.65740813722904</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.98953821442537</v>
+        <v>17.98953821437557</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.05547600863282</v>
+        <v>34.0554760085886</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.78140744084159</v>
+        <v>38.78140744085398</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5.369809707316918</v>
+        <v>5.369809707330106</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.7928677074009</v>
+        <v>33.79286770741682</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.51188144271897</v>
+        <v>40.51188144270533</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.65056832743302</v>
+        <v>16.6505683274071</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.25281895037598</v>
+        <v>27.25281895041554</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.36940632765949</v>
+        <v>32.3694063277094</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.33196427614077</v>
+        <v>24.33196427620898</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.22854457751352</v>
+        <v>32.2285445775242</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.80851742435165</v>
+        <v>35.80851742435154</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.87702055399281</v>
+        <v>36.87702055403555</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.32812382653243</v>
+        <v>43.32812382651333</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.77798607688011</v>
+        <v>45.77798607693525</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.11010959135776</v>
+        <v>26.11010959135412</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.17604926238529</v>
+        <v>42.17604926239984</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.90218252385638</v>
+        <v>46.9021825238241</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.33781303086245</v>
+        <v>30.33781303088416</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.40596365182888</v>
+        <v>31.40596365177522</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.85705472944393</v>
+        <v>37.8570547294221</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>40.30686416722189</v>
+        <v>40.30686416716732</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.63896711437782</v>
+        <v>20.63896711432712</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.70492802411185</v>
+        <v>36.70492802405376</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.43085168508959</v>
+        <v>41.43085168504241</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8.019079869614998</v>
+        <v>8.01907986957066</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.44214292697963</v>
+        <v>36.44214292694268</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.16114257774099</v>
+        <v>43.16114257772234</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.30000933299392</v>
+        <v>19.30000933298824</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.90228490961262</v>
+        <v>29.90228490960875</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.0188592941346</v>
+        <v>35.01885929410686</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.98142309796164</v>
+        <v>26.98142309796118</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.87802723480401</v>
+        <v>34.87802723479537</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.45799227955366</v>
+        <v>38.45799227951728</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>39.52649718750969</v>
+        <v>39.52649718749684</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.97760440943297</v>
+        <v>45.97760440934111</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>48.42746240916951</v>
+        <v>48.42746240921146</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.75955879454422</v>
+        <v>28.75955879457162</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>44.82552158030434</v>
+        <v>44.82552158026751</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.55164706820393</v>
+        <v>49.55164706816187</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.1526401092748</v>
+        <v>25.15264010928901</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.22073266699978</v>
+        <v>26.22073266694885</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.67179709657775</v>
+        <v>32.67179709665085</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.12162178197526</v>
+        <v>35.12162178195832</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>15.45381727423786</v>
+        <v>15.45381727431324</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.51968753913242</v>
+        <v>31.51968753913629</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.24564555744008</v>
+        <v>36.245645557515</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2.834352941850298</v>
+        <v>2.834352941882926</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.25731868016227</v>
+        <v>31.25731868018626</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.97636266099313</v>
+        <v>37.97636266098085</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>14.11493885279437</v>
+        <v>14.114938852793</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.71714730432019</v>
+        <v>24.71714730433293</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.83375897712871</v>
+        <v>29.83375897718192</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.7962747320736</v>
+        <v>21.79627473213556</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.69281737489372</v>
+        <v>29.69281737492987</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.27281135288401</v>
+        <v>33.27281135293823</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>34.34125820035401</v>
+        <v>34.34125820041176</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.79233877523485</v>
+        <v>40.79233877533626</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.24221202331422</v>
+        <v>43.24221202336516</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.57440095058929</v>
+        <v>23.57440095057486</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.6402730936443</v>
+        <v>39.64027309362963</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.36643294091768</v>
+        <v>44.36643294095587</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-2.793641630607326</v>
+        <v>-2.793641630512852</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.62691122305024</v>
+        <v>25.62691122303899</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.34478835607571</v>
+        <v>32.34478835614051</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>8.486193090784596</v>
+        <v>8.486193090789143</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.08657068954587</v>
+        <v>19.08657068952404</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.20236949815855</v>
+        <v>24.20236949810125</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.16613856173241</v>
+        <v>16.16613856168318</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.06131824316221</v>
+        <v>24.06131824307137</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.64071164184885</v>
+        <v>27.6407116417728</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.70800782816322</v>
+        <v>28.70800782817834</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.15826693440944</v>
+        <v>35.15826693438761</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.60765495688942</v>
+        <v>37.60765495686077</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.94172293142118</v>
+        <v>17.94172293142778</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.00590218991512</v>
+        <v>34.00590218989193</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.73081587309777</v>
+        <v>38.73081587315518</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.121875189685753</v>
+        <v>1.121875189629705</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.54488648336964</v>
+        <v>29.54488648335668</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.26354282501622</v>
+        <v>36.26354282498848</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12.40213482534695</v>
+        <v>12.40213482538321</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.00427568329475</v>
+        <v>23.00427568333477</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.12055018449838</v>
+        <v>28.1205501845492</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.08326564722758</v>
+        <v>20.08326564722007</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.97976806378394</v>
+        <v>27.97976806371879</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.804890739293356</v>
+        <v>1.804890739291878</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.22567506400436</v>
+        <v>30.22567506410441</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.94354776584989</v>
+        <v>36.94354776593265</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>13.08510649211941</v>
+        <v>13.08510649213123</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.68560852115901</v>
+        <v>23.68560852113571</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.80140308507863</v>
+        <v>28.80140308511854</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.76515779407568</v>
+        <v>20.76515779412661</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.66044051893927</v>
+        <v>28.66044051896769</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.23982939655652</v>
+        <v>32.23982939655299</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.30718826878389</v>
+        <v>33.30718826876718</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>39.7575047873835</v>
+        <v>39.75750478738827</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.20689369575781</v>
+        <v>42.20689369570415</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.540774143268</v>
+        <v>22.5407741433112</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.60512124451976</v>
+        <v>38.60512124452568</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.3300334036236</v>
+        <v>43.33003340363236</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>5.720944305918252</v>
+        <v>5.720944305878348</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.1441870852815</v>
+        <v>34.14418708527354</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.8628389978909</v>
+        <v>40.86283899789647</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>17.00158500535601</v>
+        <v>17.00158500529689</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.60385030391411</v>
+        <v>27.60385030392275</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.72012056211294</v>
+        <v>32.72012056211976</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.6828216716349</v>
+        <v>24.68282167160943</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>32.57942713859565</v>
+        <v>32.57942713860508</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.453761998183509</v>
+        <v>4.453761998146561</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.87455138173154</v>
+        <v>32.87455138178463</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.59241000074577</v>
+        <v>39.59241000075532</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>15.7341485747785</v>
+        <v>15.7341485746315</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.3346755584712</v>
+        <v>26.33467555838196</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.4504571313271</v>
+        <v>31.45045713125423</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.41421768977058</v>
+        <v>23.41421768978002</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>31.30952425032309</v>
+        <v>31.30952425033287</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.88890532677728</v>
+        <v>34.88890532677762</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.95626598496632</v>
+        <v>35.95626598495654</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.40658645348584</v>
+        <v>42.40658645346402</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.85597111223821</v>
+        <v>44.85597111224662</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.18982443295921</v>
+        <v>25.18982443296819</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>41.254194647972</v>
+        <v>41.25419464785138</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.97909903698793</v>
+        <v>45.97909903699089</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>8.370079267191286</v>
+        <v>8.370079267118527</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.79332710346058</v>
+        <v>36.79332710348002</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43.51196493198235</v>
+        <v>43.51196493201759</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.65089080437225</v>
+        <v>19.6508908043685</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.25318105646103</v>
+        <v>30.25318105652447</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.36943832283761</v>
+        <v>35.36943832284102</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.33214528521059</v>
+        <v>27.33214528520945</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.2287745873714</v>
+        <v>35.22877458735947</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-0.7302516502795555</v>
+        <v>-0.7302516502301017</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.69044041718168</v>
+        <v>27.69044041726069</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.40834336318552</v>
+        <v>34.40834336332536</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.54979141356797</v>
+        <v>10.54979141349476</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.15025127427931</v>
+        <v>21.15025127427874</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.26607013363652</v>
+        <v>26.26607013358513</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.22978265301005</v>
+        <v>18.22978265305257</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.12502772045822</v>
+        <v>26.1250277204946</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.70443772895068</v>
+        <v>29.70443772889861</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.77174032467157</v>
+        <v>30.77174032468021</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>37.22203414617776</v>
+        <v>37.22203414631612</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.6714340518579</v>
+        <v>39.67143405193691</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.00537990950978</v>
+        <v>20.00537990956811</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.06965948533504</v>
+        <v>36.06965948535812</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>40.79459823016943</v>
+        <v>40.79459823014032</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>3.185550973523974</v>
+        <v>3.18555097349396</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.60870148978894</v>
+        <v>31.60870148981975</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>38.32738364784008</v>
+        <v>38.32738364783781</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>14.46601896732172</v>
+        <v>14.46601896724123</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.06824209399043</v>
+        <v>25.06824209401545</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.18453664797666</v>
+        <v>30.18453664800792</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.14719556509421</v>
+        <v>22.14719556511297</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.04376337228611</v>
+        <v>30.04376337232272</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.55951643360972</v>
+        <v>31.55951643354673</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.62747642368664</v>
+        <v>32.62747642364958</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.07854558714452</v>
+        <v>39.07854558712565</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.52823417386459</v>
+        <v>41.52823417385675</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.86053711862031</v>
+        <v>21.86053711864533</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37.92646500385321</v>
+        <v>37.92646500388322</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.65214452051079</v>
+        <v>42.65214452048998</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>9.240303933926739</v>
+        <v>9.240303933967553</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.66298982476123</v>
+        <v>37.66298982476043</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>44.38170398213573</v>
+        <v>44.38170398207832</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.52102793459257</v>
+        <v>20.52102793461053</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.12331732521911</v>
+        <v>31.12331732518989</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.23969817714239</v>
+        <v>36.23969817715273</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.20231541923717</v>
+        <v>28.20231541926888</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.09896668731348</v>
+        <v>36.09896668726539</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.67878275555212</v>
+        <v>39.67878275554916</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.74709704330441</v>
+        <v>40.74709704326087</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.19818234250489</v>
+        <v>47.19818234251899</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.64791949395398</v>
+        <v>49.64791949394591</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.98021590464317</v>
+        <v>29.98021590473765</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>46.04614564004466</v>
+        <v>46.04614564007728</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>50.77202698874102</v>
+        <v>50.77202698879536</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.15917098853824</v>
+        <v>36.15917098853653</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.22719366648063</v>
+        <v>37.22719366649427</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.67832024593646</v>
+        <v>43.67832024593623</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>46.12800971946264</v>
+        <v>46.12800971946582</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.46012512550205</v>
+        <v>26.46012512558856</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.52622086398743</v>
+        <v>42.52622086398038</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.25189885899046</v>
+        <v>47.25189885901888</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.83945450049545</v>
+        <v>13.83945450047055</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.12055956696669</v>
+        <v>25.12055956711505</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.72297339708201</v>
+        <v>35.72297339703631</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.83935000509008</v>
+        <v>40.83935000509906</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.80195289627444</v>
+        <v>32.80195289626216</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.69870721344331</v>
+        <v>40.69870721347696</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.27851876171827</v>
+        <v>44.2785187617401</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>45.34689573599134</v>
+        <v>45.34689573597633</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>51.79803845044798</v>
+        <v>51.79803845041023</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.24777648817305</v>
+        <v>54.24777648810392</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.5798853620479</v>
+        <v>34.57988536211202</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>50.64598294848669</v>
+        <v>50.64598294849465</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>55.3718627743897</v>
+        <v>55.37186277435787</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.80851063568447</v>
+        <v>38.80851063563559</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.87653509478857</v>
+        <v>39.87653509477117</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>46.32766562349015</v>
+        <v>46.32766562348799</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.7773508467492</v>
+        <v>48.77735084676728</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.10943912578047</v>
+        <v>29.10943912575068</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>45.17555797775209</v>
+        <v>45.17555797776551</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.90122820093133</v>
+        <v>49.90122820095236</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.48860977079723</v>
+        <v>16.48860977078972</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.91153219860645</v>
+        <v>44.91153219860099</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.63022784096007</v>
+        <v>51.63022784100066</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.76988567270941</v>
+        <v>27.76988567274908</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.37232445508313</v>
+        <v>38.37232445514088</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.4886880700541</v>
+        <v>43.4886880700649</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.45129681795915</v>
+        <v>35.45129681794448</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>43.34807496913392</v>
+        <v>43.34807496905695</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.92787871491909</v>
+        <v>46.92787871490385</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>47.99625746849064</v>
+        <v>47.99625746844698</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.44740413152353</v>
+        <v>54.44740413145611</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>56.89713791813507</v>
+        <v>56.89713791812359</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.22921966698654</v>
+        <v>37.22921966704122</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.29534036547922</v>
+        <v>53.29534036554141</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.02121241760143</v>
+        <v>58.02121241763759</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.62352835360186</v>
+        <v>33.62352835359526</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.69149475102246</v>
+        <v>34.69149475110954</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.14259863240967</v>
+        <v>41.142598632439</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.59229910347405</v>
+        <v>43.59229910356852</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.92447992304984</v>
+        <v>23.92447992305951</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.99050813279418</v>
+        <v>39.99050813284113</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>44.71621271377695</v>
+        <v>44.71621271382175</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.30407346730694</v>
+        <v>11.30407346742346</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>39.72689857825846</v>
+        <v>39.72689857830132</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.44563855120693</v>
+        <v>46.44563855117589</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.58500582776107</v>
+        <v>22.58500582786338</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.18737748711921</v>
+        <v>33.18737748718594</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.30377839033419</v>
+        <v>38.30377839032293</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.266339090177</v>
+        <v>30.26633909020235</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.16305574860532</v>
+        <v>38.16305574861589</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.74288842774742</v>
+        <v>41.74288842782177</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.81120912263704</v>
+        <v>42.8112091226417</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49.2623291392771</v>
+        <v>49.26232913937078</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.71207817445806</v>
+        <v>51.71207817448386</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.0442524612596</v>
+        <v>32.04425246130837</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.11028251948041</v>
+        <v>48.11028251955101</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>52.83618893137078</v>
+        <v>52.83618893133304</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-6.197330898414279</v>
+        <v>-6.197330898373011</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.22339587891271</v>
+        <v>22.22339587893443</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.94123453992405</v>
+        <v>28.94123453987869</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.082271761792086</v>
+        <v>5.082271761805728</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.68278006846084</v>
+        <v>15.68278006851916</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.79854788216575</v>
+        <v>20.79854788215199</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.7622361938236</v>
+        <v>12.76223619386225</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.6575193237119</v>
+        <v>20.65751932365789</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.23688338236958</v>
+        <v>24.23688338232695</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.3041650883405</v>
+        <v>25.30416508833095</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.75447526480197</v>
+        <v>31.75447526480049</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.20384469263708</v>
+        <v>34.20384469262628</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.53785726435025</v>
+        <v>14.53785726437071</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.60214251212257</v>
+        <v>30.60214251211575</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.3270128032491</v>
+        <v>35.32701280321272</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-2.282475254571622</v>
+        <v>-2.282475254582877</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.14070996784928</v>
+        <v>26.14070996784586</v>
       </c>
     </row>
     <row r="376">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.997552299514737</v>
+        <v>8.997552299508143</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.5998238656888</v>
+        <v>19.59982386561298</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.71606737899198</v>
+        <v>24.71606737901483</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.67870207459556</v>
+        <v>16.6787020746274</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.57530794081528</v>
+        <v>24.57530794085723</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-1.598819307264066</v>
+        <v>-1.598819307123094</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.82213894292717</v>
+        <v>26.82213894296378</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.53997317218752</v>
+        <v>33.53997317222071</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.681164383796059</v>
+        <v>9.681164383726937</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.28179712164469</v>
+        <v>20.28179712165594</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.39756069033059</v>
+        <v>25.39756069034628</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.36123464637468</v>
+        <v>17.36123464645733</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.25662082036241</v>
+        <v>25.25662082039504</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.83598035787078</v>
+        <v>28.83598035790693</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.90332474877927</v>
+        <v>29.90332474872982</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.35369233826658</v>
+        <v>36.35369233828523</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.80306265191838</v>
+        <v>38.80306265192941</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.13688769559214</v>
+        <v>19.13688769556212</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.20134078766877</v>
+        <v>35.20134078760988</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.92620955428573</v>
+        <v>39.92620955422832</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>2.316573085128212</v>
+        <v>2.316573085174937</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.73998979446618</v>
+        <v>30.73998979450631</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.45860323946137</v>
+        <v>37.4586032394359</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.59698170257867</v>
+        <v>13.59698170254832</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.19937771030426</v>
+        <v>24.19937771028584</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.31561698025702</v>
+        <v>29.31561698024133</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.27823732150797</v>
+        <v>21.27823732154106</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.17494623944323</v>
+        <v>29.17494623939605</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1.050055930721456</v>
+        <v>1.050055930628574</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.4710192392795</v>
+        <v>29.47101923930087</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.18883938553473</v>
+        <v>36.18883938552916</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.33021044538772</v>
+        <v>12.33021044537431</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.93086813814479</v>
+        <v>22.93086813810216</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.0466187156468</v>
+        <v>28.0466187156285</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.01029852076682</v>
+        <v>20.01029852079957</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.90570853061571</v>
+        <v>27.90570853060468</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.48506026691997</v>
+        <v>31.48506026691088</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.55240644402831</v>
+        <v>32.55240644397385</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.0027779837891</v>
+        <v>39.0027779837982</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.45214404777347</v>
+        <v>41.45214404776233</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.78594196460882</v>
+        <v>21.7859419646161</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>37.85041817020796</v>
+        <v>37.85041817022251</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>42.57527916670075</v>
+        <v>42.57527916669916</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.965712027006944</v>
+        <v>4.965712026897691</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.38913379340512</v>
+        <v>33.38913379343559</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>40.10773315455334</v>
+        <v>40.10773315453515</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.24629148345504</v>
+        <v>16.24629148336955</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.84871244454315</v>
+        <v>26.84871244448347</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.96493872262478</v>
+        <v>31.96493872264229</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.92756491706861</v>
+        <v>23.92756491705769</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.82429766993768</v>
+        <v>31.82429766996258</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-4.13396159684099</v>
+        <v>-4.133961596842354</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.2869043944727</v>
+        <v>24.28690439449635</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.0047688683983</v>
+        <v>31.00476886837318</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.145849404352376</v>
+        <v>7.145849404362608</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.74643997330499</v>
+        <v>17.74643997337081</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.86222783761242</v>
+        <v>22.86222783765756</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.82585960486098</v>
+        <v>14.82585960487769</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.72120812079415</v>
+        <v>22.72120812091988</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.30058878949355</v>
+        <v>26.30058878956767</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.36787690463417</v>
+        <v>27.36787690466964</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.81822179698226</v>
+        <v>33.81822179694815</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.26760310790247</v>
+        <v>36.26760310790418</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.60149356272827</v>
+        <v>16.6014935627269</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.66587912784929</v>
+        <v>32.66587912785123</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.39077448075695</v>
+        <v>37.39077448077548</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-0.2188201507102434</v>
+        <v>-0.2188201506673835</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.20450429446056</v>
+        <v>28.20450429449626</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.92314798531176</v>
+        <v>34.92314798547444</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.06141576164841</v>
+        <v>11.06141576163931</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.66376959669016</v>
+        <v>21.66376959672415</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.78003316259755</v>
+        <v>26.78003316261801</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.74261131236393</v>
+        <v>18.74261131236189</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.63928256965245</v>
+        <v>26.63928256967803</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.15502697439776</v>
+        <v>28.15502697436024</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.22297249550549</v>
+        <v>29.22297249548502</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.67409273061675</v>
+        <v>35.6740927305823</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>38.12376272438873</v>
+        <v>38.12376272429391</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.45601027020963</v>
+        <v>18.4560102701778</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.52204415006749</v>
+        <v>34.5220441500709</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.24768027975905</v>
+        <v>39.24768027970767</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.836008699470327</v>
+        <v>5.836008699452478</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.25886851367342</v>
+        <v>34.25886851364352</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>40.97754420617561</v>
+        <v>40.97754420616049</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.11650062514128</v>
+        <v>17.11650062506148</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.71892071655772</v>
+        <v>27.71892071653328</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.8352705829475</v>
+        <v>32.83527058293545</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.79780706406451</v>
+        <v>24.79780706417138</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.69456177808264</v>
+        <v>32.69456177812152</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.27434851118257</v>
+        <v>36.2743485112327</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>37.34264833562465</v>
+        <v>37.3426483356276</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>43.79378470471387</v>
+        <v>43.7937847046925</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.24350326509524</v>
+        <v>46.24350326504147</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.57574427934266</v>
+        <v>26.57574427941212</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.64178000633139</v>
+        <v>42.64178000634321</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.36761797086423</v>
+        <v>47.3676179708723</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.75466075267003</v>
+        <v>32.75466075278872</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.82266896075807</v>
+        <v>33.8226689607442</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.27384661242128</v>
+        <v>40.27384661248324</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>42.72351749301721</v>
+        <v>42.72351749297344</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.05557749854621</v>
+        <v>23.05557749854599</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.1217792332907</v>
+        <v>39.12177923332332</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>43.84741384087387</v>
+        <v>43.84741384092287</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.43513849113016</v>
+        <v>10.43513849107127</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.85822978824628</v>
+        <v>38.85822978824537</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>45.57690105018095</v>
+        <v>45.5769010501664</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.71601148265326</v>
+        <v>21.71601148259732</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.31855601417909</v>
+        <v>32.31855601413532</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.43490163659057</v>
+        <v>37.43490163653986</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.39742376547498</v>
+        <v>29.39742376553535</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.29428152947868</v>
+        <v>37.29428152950995</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.87406374219928</v>
+        <v>40.87406374221713</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>41.94242625222138</v>
+        <v>41.94242625223195</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>48.39362003726048</v>
+        <v>48.39362003730402</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>50.84333948364657</v>
+        <v>50.8433394836576</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.17539296075985</v>
+        <v>31.17539296080794</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>47.2415965405727</v>
+        <v>47.24159654060556</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>51.96743298161984</v>
+        <v>51.9674329816818</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.40400438161488</v>
+        <v>35.40400438162534</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.47201437049593</v>
+        <v>36.47201437050036</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>42.92319597156394</v>
+        <v>42.92319597155667</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.37286260201905</v>
+        <v>45.37286260200428</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.70489548058607</v>
+        <v>25.70489548056368</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>41.77112032874608</v>
+        <v>41.77112032868742</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.49674716457106</v>
+        <v>46.49674716449023</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>13.08429774381217</v>
+        <v>13.08429774377932</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.50739409696781</v>
+        <v>41.50739409693882</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>48.22605127407088</v>
+        <v>48.22605127399108</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.36534157258212</v>
+        <v>24.36534157252255</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.96791105631395</v>
+        <v>34.96791105627712</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.08424368566138</v>
+        <v>40.08424368563625</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.04677167010301</v>
+        <v>32.0467716701652</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.94365326790923</v>
+        <v>39.94365326789831</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.5234276783258</v>
+        <v>43.52342767832569</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>44.59179196825802</v>
+        <v>44.59179196824324</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>51.04298970154413</v>
+        <v>51.04298970165623</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.49270489727088</v>
+        <v>53.49270489723905</v>
       </c>
     </row>
     <row r="514">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.89095794062418</v>
+        <v>49.890957940636</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>54.61678660805957</v>
+        <v>54.61678660808219</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.21901821453106</v>
+        <v>30.21901821461428</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.28697014237061</v>
+        <v>31.28697014237675</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.73812509598987</v>
+        <v>37.73812509599317</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.18780697420631</v>
+        <v>40.18780697422086</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.51993239473099</v>
+        <v>20.51993239479692</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.58606659907038</v>
+        <v>36.58606659909448</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.31172779332475</v>
+        <v>41.3117277933052</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.899757554743942</v>
+        <v>7.899757554728822</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.32275658963569</v>
+        <v>36.32275658962079</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.04145809768603</v>
+        <v>43.04145809767955</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.1804578402356</v>
+        <v>19.18045784022026</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.78296020004167</v>
+        <v>29.78296020008158</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.89933011791244</v>
+        <v>34.89933011787276</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.86181005653647</v>
+        <v>26.86181005655909</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.75863016078405</v>
+        <v>34.7586301608351</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.33843350504755</v>
+        <v>38.33843350509802</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>39.40673973603351</v>
+        <v>39.40673973600498</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.85791082266668</v>
+        <v>45.85791082269772</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.30764126674627</v>
+        <v>48.30764126677538</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.6397601571713</v>
+        <v>28.63976015727316</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.70589620802026</v>
+        <v>44.70589620806392</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.43175923568778</v>
+        <v>49.43175923571324</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-8.226692021555195</v>
+        <v>-8.22669202158248</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.19409567751588</v>
+        <v>20.19409567754168</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.91197695216501</v>
+        <v>26.91197695209941</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.052854603350298</v>
+        <v>3.052854603352458</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.65334009618097</v>
+        <v>13.65334009619245</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.76916726911271</v>
+        <v>18.76916726914227</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.73282873787629</v>
+        <v>10.73282873776067</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.62809985089906</v>
+        <v>18.62809985082448</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.2075100163761</v>
+        <v>22.20751001636155</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.27483433293277</v>
+        <v>23.27483433285092</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.72513158767369</v>
+        <v>29.72513158761321</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.1745195773449</v>
+        <v>32.17451957732796</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.50858428352446</v>
+        <v>12.50858428350877</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.57283596220169</v>
+        <v>28.57283596221636</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.29775340011498</v>
+        <v>33.29775340004598</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-4.311867476432653</v>
+        <v>-4.3118674764156</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.11137869318885</v>
+        <v>24.11137869313235</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.83003918242038</v>
+        <v>30.83003918235455</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.968104032348393</v>
+        <v>6.968104032353622</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.57035280692754</v>
+        <v>17.57035280691822</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.68665568103508</v>
+        <v>22.68665568098812</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.64926351788507</v>
+        <v>14.64926351787791</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.54585738413415</v>
+        <v>22.54585738406901</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.628174154051052</v>
+        <v>-3.628174154028315</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.79284501887356</v>
+        <v>24.79284501894325</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.51072186204102</v>
+        <v>31.5107218620084</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.651753504041736</v>
+        <v>7.651753504073341</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.25236342872076</v>
+        <v>18.25236342871143</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.36818635713099</v>
+        <v>23.36818635715305</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.33183346948603</v>
+        <v>15.33183346952775</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.22720762694657</v>
+        <v>23.227207626961</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.80661327158784</v>
+        <v>26.80661327160341</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.87400027484331</v>
+        <v>27.87400027484206</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.32435494308847</v>
+        <v>34.32435494313212</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.77374381839128</v>
+        <v>36.77374381846199</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.10762099673947</v>
+        <v>17.10762099672503</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.17204051887406</v>
+        <v>33.1720405188935</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.89695643286917</v>
+        <v>37.89695643285758</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>0.2871871463239728</v>
+        <v>0.2871871463104441</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.71066480319622</v>
+        <v>28.71066480321817</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.42932086314956</v>
+        <v>35.429320863169</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.56753972013691</v>
+        <v>11.56753972015839</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.16991293657999</v>
+        <v>22.16991293659125</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.28621156789929</v>
+        <v>27.28621156788644</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.248805049696</v>
+        <v>19.24880504977229</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.14550196762947</v>
+        <v>27.14550196769268</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-0.9792889365971718</v>
+        <v>-0.9792889365466948</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.44173529544186</v>
+        <v>27.44173529534</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.1595980553666</v>
+        <v>34.15959805539559</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.30080954797133</v>
+        <v>10.300809547996</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.90144442735665</v>
+        <v>20.90144442731243</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.01725436460312</v>
+        <v>26.01725436459493</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.9809073253822</v>
+        <v>17.98090732532468</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.87630531930064</v>
+        <v>25.87630531923141</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.45570316265425</v>
+        <v>29.45570316267255</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.52309195218312</v>
+        <v>30.52309195220791</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.97345057034205</v>
+        <v>36.97345057035297</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.42283519602201</v>
+        <v>39.42283519599268</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.7566852475385</v>
+        <v>19.75668524763422</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.82112788378778</v>
+        <v>35.82112788378039</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.54603602786655</v>
+        <v>40.54603602787667</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.9363360717456</v>
+        <v>2.936336071682049</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.35981878592021</v>
+        <v>31.35981878584961</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.07846076189914</v>
+        <v>38.07846076184275</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.21685948554797</v>
+        <v>14.21685948561334</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.81925765549398</v>
+        <v>24.81925765546795</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.93554329500161</v>
+        <v>29.93554329505618</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.89814262981817</v>
+        <v>21.89814262985705</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.79486338319545</v>
+        <v>29.79486338318476</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-6.163328336419553</v>
+        <v>-6.163328336415461</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.25759857767902</v>
+        <v>22.2575985776506</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.97550566546501</v>
+        <v>28.97550566541112</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.116426631572622</v>
+        <v>5.116426631596269</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.7169943872283</v>
+        <v>15.71699438721932</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.83284161142639</v>
+        <v>20.8328416114489</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>12.79644653437914</v>
+        <v>12.79644653446339</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.69178303445803</v>
+        <v>20.69178303449441</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.27120981003988</v>
+        <v>24.27120981007785</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.33854053615882</v>
+        <v>25.33854053602876</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.78887250717607</v>
+        <v>31.78887250720335</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.23827237973479</v>
+        <v>34.23827237981335</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.57221496900526</v>
+        <v>14.57221496903482</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.63656696494049</v>
+        <v>30.6365669649639</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.36150946522709</v>
+        <v>35.36150946525449</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2.248217984403468</v>
+        <v>-2.248217984363222</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.17516740797784</v>
+        <v>26.1751674080141</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.89385371426114</v>
+        <v>32.8938537142508</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>9.031961882757642</v>
+        <v>9.031961882796523</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.63429292656987</v>
+        <v>19.63429292655157</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.75061585389734</v>
+        <v>24.75061585397385</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.71316714370677</v>
+        <v>16.71316714381352</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.60982640157262</v>
+        <v>24.60982640164117</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.12562252608576</v>
+        <v>26.12562252603801</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.19361064042609</v>
+        <v>27.19361064037436</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.64471796115369</v>
+        <v>33.64471796109105</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.09440651705837</v>
+        <v>36.0944065170586</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.42670617532157</v>
+        <v>16.42670617529599</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.49270650705365</v>
+        <v>32.49270650709151</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.21838978777238</v>
+        <v>37.21838978774566</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.806872329355329</v>
+        <v>3.806872329355897</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.22979309772315</v>
+        <v>32.22979309773804</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.94851139843867</v>
+        <v>38.94851139845004</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.08730822115514</v>
+        <v>15.08730822098654</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.68970552772761</v>
+        <v>25.68970552760847</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.80611474801175</v>
+        <v>30.80611474793945</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.76862437390947</v>
+        <v>22.76862437383933</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.66536709320668</v>
+        <v>30.66536709324431</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.24519993050048</v>
+        <v>34.24519993057096</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.31354234574088</v>
+        <v>35.31354234562583</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>41.76466580373166</v>
+        <v>41.76466580372484</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.21440292342756</v>
+        <v>44.21440292333683</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.54669604077289</v>
+        <v>24.54669604073389</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.61269822978683</v>
+        <v>40.61269822977455</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.33858333913055</v>
+        <v>45.33858333914317</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.72526258979714</v>
+        <v>30.7252625898192</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.79331339178135</v>
+        <v>31.79331339181171</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.24447813010956</v>
+        <v>38.24447813017186</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.69416757282285</v>
+        <v>40.69416757284172</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>21.02627969104346</v>
+        <v>21.02627969101856</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.0924478771292</v>
+        <v>37.092447877086</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.81812963626886</v>
+        <v>41.81812963628785</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>8.40600840793924</v>
+        <v>8.406008407942878</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.82916065955546</v>
+        <v>36.82916065954784</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.54787453020914</v>
+        <v>43.54787453017845</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.68682536728751</v>
+        <v>19.68682536723612</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.28934711441697</v>
+        <v>30.28934711445847</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.40575209117175</v>
+        <v>35.40575209113184</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.368247364597</v>
+        <v>27.36824736464099</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.26509313403893</v>
+        <v>35.2650931340868</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.84492145148228</v>
+        <v>38.84492145162416</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.91332655373436</v>
+        <v>39.91332655376449</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.36450742775618</v>
+        <v>46.36450742774515</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.81424543368952</v>
+        <v>48.81424543368611</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.14635101415196</v>
+        <v>29.14635101421437</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>45.21252105541295</v>
+        <v>45.2125210554167</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>49.93840464180484</v>
+        <v>49.93840464179767</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.37461620385422</v>
+        <v>33.37461620384421</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.44266878683767</v>
+        <v>34.44266878684745</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.89383747431397</v>
+        <v>40.89383747427736</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.34352266696511</v>
+        <v>43.34352266697921</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.67560765782265</v>
+        <v>23.6756076577815</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.74179895777344</v>
+        <v>39.74179895774445</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.46747294522221</v>
+        <v>44.4674729451897</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>11.05517764432194</v>
+        <v>11.05517764429989</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.47833495278179</v>
+        <v>39.47833495275064</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>46.19703473835513</v>
+        <v>46.19703473832944</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.33616544261737</v>
+        <v>22.3361654426317</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.93871214239586</v>
+        <v>32.93871214243667</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.05510412609136</v>
+        <v>38.05510412609227</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.01760525464898</v>
+        <v>30.01760525460215</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.91447485836501</v>
+        <v>37.91447485829816</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.49429537359767</v>
+        <v>41.49429537353593</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.56270225580433</v>
+        <v>42.56270225572781</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.01388707881985</v>
+        <v>49.01388707873242</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.46362083389387</v>
+        <v>51.46362083386533</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.79569928787534</v>
+        <v>31.79569928785408</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.86189244199353</v>
+        <v>47.86189244192759</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.58776825481756</v>
+        <v>52.58776825480653</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.18960815570519</v>
+        <v>28.18960815570246</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.25760267673094</v>
+        <v>29.25760267678471</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.70874471644869</v>
+        <v>35.70874471645881</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.15844515687537</v>
+        <v>38.15844515690743</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>18.49062269011928</v>
+        <v>18.4906226902133</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.55672334576413</v>
+        <v>34.5567233458179</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.28243169157999</v>
+        <v>39.28243169165172</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>5.87061557510107</v>
+        <v>5.870615575113803</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.29367556451145</v>
+        <v>34.29367556450917</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>41.01241968132742</v>
+        <v>41.01241968136516</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.15125982737699</v>
+        <v>17.15125982739268</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.75373940293709</v>
+        <v>27.75373940291458</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.87016867543981</v>
+        <v>32.87016867543322</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.83262175773429</v>
+        <v>24.83262175782501</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.72942986782256</v>
+        <v>32.72942986789919</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.3092793165854</v>
+        <v>36.309279316656</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.37762813905557</v>
+        <v>37.3776281389528</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.82878631529515</v>
+        <v>43.82878631531266</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.27853531893903</v>
+        <v>46.2785353189728</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.61070631233169</v>
+        <v>26.61070631232998</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.67680882467586</v>
+        <v>42.67680882469678</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.4027189977793</v>
+        <v>47.40271899783922</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.315453003742633</v>
+        <v>3.315453003706594</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.73685425045677</v>
+        <v>31.73685425039186</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.45513360034921</v>
+        <v>38.45513360035297</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.59580728061077</v>
+        <v>14.59580728057382</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.19646024858697</v>
+        <v>25.19646024858186</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.31255600350541</v>
+        <v>30.31255600349211</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.27614203723444</v>
+        <v>22.2761420372707</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.17149249947944</v>
+        <v>30.17149249948581</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.75111289810924</v>
+        <v>33.75111289809696</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.81833350621993</v>
+        <v>34.81833350623664</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.26876995086162</v>
+        <v>41.26876995083195</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>43.71831718472141</v>
+        <v>43.71831718471675</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.05164697045656</v>
+        <v>24.05164697043962</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.11625953824195</v>
+        <v>40.11625953825036</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>44.84150671159388</v>
+        <v>44.84150671162753</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>7.232067799034567</v>
+        <v>7.23206779909448</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.65592757940523</v>
+        <v>35.65592757933281</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.37498619623922</v>
+        <v>42.37498619618943</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.51284704032516</v>
+        <v>18.51284704030583</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.11526334035797</v>
+        <v>29.11526334037798</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.23183483488778</v>
+        <v>34.23183483489005</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.19436719959334</v>
+        <v>26.19436719955037</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.09104045157461</v>
+        <v>34.09104045155563</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.914258187184728</v>
+        <v>7.914258187146984</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.33589091311354</v>
+        <v>36.33589091305886</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.05416583312514</v>
+        <v>43.05416583317107</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.19499351206174</v>
+        <v>19.19499351208846</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.79577091522266</v>
+        <v>29.79577091523369</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.91186242604353</v>
+        <v>34.9118624260624</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.87543410597574</v>
+        <v>26.87543410602838</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.77088761501888</v>
+        <v>34.77088761514666</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.35050349332359</v>
+        <v>38.35050349341431</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.41778678854452</v>
+        <v>39.41778678854133</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.868280647882</v>
+        <v>45.86828064779128</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.31782876817523</v>
+        <v>48.31782876820786</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.65097101825565</v>
+        <v>28.65097101830192</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.7157514345637</v>
+        <v>44.71575143458541</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.44099708530304</v>
+        <v>49.44099708527189</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>11.83140975479297</v>
+        <v>11.83140975479263</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.25550102872093</v>
+        <v>40.25550102870399</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.97455521798203</v>
+        <v>46.97455521801238</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.11257007662006</v>
+        <v>23.11257007658516</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.71511082165524</v>
+        <v>33.71511082158169</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.83167807376311</v>
+        <v>38.83167807375618</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.7941960867828</v>
+        <v>30.79419608680134</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.69097239255792</v>
+        <v>38.69097239255088</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.56324753804905</v>
+        <v>10.56324753790194</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.98488532328476</v>
+        <v>38.98488532320938</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45.70314616026145</v>
+        <v>45.70314616024827</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.84415369360057</v>
+        <v>21.84415369359421</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.44495605275803</v>
+        <v>32.44495605279305</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.56103457240796</v>
+        <v>37.56103457240717</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.52461210192929</v>
+        <v>29.52461210191201</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>37.42008944804572</v>
+        <v>37.42008944793498</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.99969752521623</v>
+        <v>40.99969752515803</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.06698260597217</v>
+        <v>42.0669826059242</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.51748041575867</v>
+        <v>48.51748041569648</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.96702428620712</v>
+        <v>50.96702428620041</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.30013940780397</v>
+        <v>31.30013940778817</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.3649429390647</v>
+        <v>47.36494293906527</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>52.09018081977491</v>
+        <v>52.09018081972353</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.48066281673563</v>
+        <v>14.48066281672381</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.90475914827097</v>
+        <v>42.90475914823539</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.62379925343511</v>
+        <v>49.6237992533927</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.76199398429482</v>
+        <v>25.76199398427265</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.36455968378574</v>
+        <v>36.36455968376335</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.48111394360127</v>
+        <v>41.48111394360537</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.44363781010067</v>
+        <v>33.443637810076</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.34043795225047</v>
+        <v>41.34043795221466</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>5.378978676561829</v>
+        <v>5.378978676615944</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.80051914198317</v>
+        <v>33.80051914201842</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>40.51882430667742</v>
+        <v>40.51882430671368</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.65954130474235</v>
+        <v>16.65954130473848</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.26027653853806</v>
+        <v>27.26027653853954</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.37639234573534</v>
+        <v>32.37639234570328</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.33992183315981</v>
+        <v>24.33992183318186</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.23533768398921</v>
+        <v>32.23533768403651</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.81497469398506</v>
+        <v>35.81497469402474</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.88220170963088</v>
+        <v>36.88220170965384</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.33267287143487</v>
+        <v>43.33267287148477</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.78223198909963</v>
+        <v>45.78223198912373</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.11543965160685</v>
+        <v>26.11543965165914</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.18015254074864</v>
+        <v>42.18015254079718</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.90542477778946</v>
+        <v>46.9054247778064</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>9.295879288957181</v>
+        <v>9.295879288954225</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.71987829676949</v>
+        <v>37.71987829674039</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.43896273229383</v>
+        <v>44.43896273227394</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.57686689800768</v>
+        <v>20.57686689804929</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.17936547011938</v>
+        <v>31.17936547013575</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.29595701872064</v>
+        <v>36.29595701869893</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.25843283643475</v>
+        <v>28.25843283645851</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.15517148171661</v>
+        <v>36.15517148173673</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.67101585976106</v>
+        <v>37.67101585974036</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>38.73890025539403</v>
+        <v>38.73890025532695</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.19014678943769</v>
+        <v>45.19014678934026</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>47.63999461267066</v>
+        <v>47.63999461257812</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.97155926795791</v>
+        <v>27.97155926792244</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>44.03792053064195</v>
+        <v>44.03792053061751</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>48.76393360006365</v>
+        <v>48.76393360001727</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.35055162661685</v>
+        <v>15.35055162668677</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>43.77408599796856</v>
+        <v>43.77408599785589</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>50.49320243038825</v>
+        <v>50.49320243039291</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.63179525030627</v>
+        <v>26.63179525031968</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.23436009852391</v>
+        <v>37.23436009849765</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>42.35103794427131</v>
+        <v>42.35103794433361</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.31347206722445</v>
+        <v>34.31347206708689</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.21029418382103</v>
+        <v>42.21029418371405</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>45.79033729228787</v>
+        <v>45.79033729230936</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>46.85857599578539</v>
+        <v>46.85857599574366</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.30983866975409</v>
+        <v>53.30983866974397</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>55.7597350573317</v>
+        <v>55.75973505731191</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.09129317380486</v>
+        <v>36.09129317370186</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>52.15765629617921</v>
+        <v>52.15765629617205</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>56.88387120047197</v>
+        <v>56.88387120042093</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>42.27094328143325</v>
+        <v>42.27094328155648</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.33889036655593</v>
+        <v>43.33889036657253</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.79019431871144</v>
+        <v>49.79019431873611</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.24004302927109</v>
+        <v>52.24004302920811</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.57142013684371</v>
+        <v>32.57142013687475</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>48.63794925858373</v>
+        <v>48.63794925861477</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.36396080776218</v>
+        <v>53.36396080777412</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.94997503256913</v>
+        <v>19.94997503257629</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.37374089331219</v>
+        <v>48.37374089339268</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.09285289693754</v>
+        <v>55.09285289688218</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.23159973996668</v>
+        <v>31.23159973996782</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.83428903199867</v>
+        <v>41.83428903204391</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.95096263467521</v>
+        <v>46.95096263474046</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.91338240765846</v>
+        <v>38.91338240775123</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.81030757666635</v>
+        <v>46.81030757673024</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.39034616600283</v>
+        <v>50.39034616600294</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.45864755782669</v>
+        <v>51.45864755783045</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.90996764866442</v>
+        <v>57.90996764868113</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>60.35986492303711</v>
+        <v>60.35986492308815</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.69123549459347</v>
+        <v>40.6912354945738</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>56.7577664734746</v>
+        <v>56.75776647343618</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>61.48397985600867</v>
+        <v>61.4839798560936</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.92040103948172</v>
+        <v>44.92040103959643</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.98834990486183</v>
+        <v>45.9883499048109</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>52.43965780637576</v>
+        <v>52.43965780633563</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.88950226683995</v>
+        <v>54.88950226676424</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.22085224548654</v>
+        <v>35.22085224553065</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>51.28740448212569</v>
+        <v>51.28740448210682</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>56.01340825930926</v>
+        <v>56.01340825931074</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.5992484037795</v>
+        <v>22.59924840380519</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.02301932131981</v>
+        <v>51.02301932137449</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>57.74211724002306</v>
+        <v>57.74211724001226</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.88104395539723</v>
+        <v>33.8810439553737</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.48375820053845</v>
+        <v>44.48375820047558</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.6004188097519</v>
+        <v>49.60041880974076</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>41.56284443933045</v>
+        <v>41.56284443932738</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>49.45979344293586</v>
+        <v>49.45979344288561</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.03982422978687</v>
+        <v>53.03982422970991</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>54.10812740072403</v>
+        <v>54.10812740070948</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.55945144064471</v>
+        <v>60.55945144064187</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>63.00934446405564</v>
+        <v>63.00934446401619</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>43.34068790800758</v>
+        <v>43.34068790807079</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.40724200066064</v>
+        <v>59.40724200066144</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>64.13344760923441</v>
+        <v>64.13344760923418</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.73516350265415</v>
+        <v>39.73516350265994</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>40.80305430425518</v>
+        <v>40.80305430428986</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.25433555701694</v>
+        <v>47.25433555707527</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.70419526548621</v>
+        <v>49.70419526548177</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.03563779010973</v>
+        <v>30.03563779016669</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.10209938109223</v>
+        <v>46.10209938111463</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.82813751679534</v>
+        <v>50.82813751681387</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.41445686656745</v>
+        <v>17.41445686659121</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.83813046365277</v>
+        <v>45.83813046363538</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.55727271353693</v>
+        <v>52.55727271353977</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.69590886054972</v>
+        <v>28.6959088605329</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.29855598055805</v>
+        <v>39.29855598054316</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.41525387938772</v>
+        <v>44.41525387940239</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.37763145825899</v>
+        <v>36.37763145830344</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.27451896766787</v>
+        <v>44.27451896766264</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.85457868836865</v>
+        <v>47.85457868834466</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.92282379783013</v>
+        <v>48.92282379784832</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>55.37412119037084</v>
+        <v>55.37412119038596</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.82402946234312</v>
+        <v>57.8240294623164</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.15546544906285</v>
+        <v>38.1554654490816</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.22192889861346</v>
+        <v>54.22192889856457</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.94816886751723</v>
+        <v>58.94816886744049</v>
       </c>
     </row>
   </sheetData>
